--- a/events.xlsx
+++ b/events.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun 8 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8:30 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,17 +538,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹ 599</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">

--- a/events.xlsx
+++ b/events.xlsx
@@ -508,17 +508,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sun 8 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8:30 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,17 +538,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹ 599</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,57 +503,305 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Anirban Dasgupta Live</t>
+          <t>01 Kenny Sebastian - A Crowd Work Show</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Thu 12 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>₹ 999 onwards</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>01_Kenny Sebastian - A Crowd Work Show.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>#0002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>02 Swiftchella - A Taylor Swift-Themed Fan Party</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sat 14 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sat 12 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3:00 PM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3 Hours</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1 hour 30 minutes</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>18yrs+</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Veranda: Khar</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>₹ 499 onwards</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>02_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>#0003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>03 Comedy Nights @Comedy County</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 9 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu 3 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Comedy County: Noida</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>₹ 99 onwards</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>03_Comedy Nights @Comedy County.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>#0004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>04 Paint with Puppies by Barket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sun 15 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>English, Hindi</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>BeeYoung Brewgarden: Delhi</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>04_Paint with Puppies by Barket.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>#0005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>05 Best of Stand-up - Stand-up Comedy Show</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Wed 11 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sun 15 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8:00 PM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 Hindi</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Laughter Nation Comedy Club, 7</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>₹ 99</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>01_Anirban Dasgupta Live.png</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>05_Best of Stand-up - Stand-up Comedy Show.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,22 +503,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Kenny Sebastian - A Crowd Work Show</t>
+          <t>01 Comedy Nights @Comedy County</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thu 12 Jun 2025</t>
+          <t>Mon 9 Jun 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Thu 3 Jul 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,17 +533,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹ 999 onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Kenny Sebastian - A Crowd Work Show.png</t>
+          <t>01_Comedy Nights @Comedy County.png</t>
         </is>
       </c>
     </row>
@@ -565,27 +565,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Swiftchella - A Taylor Swift-Themed Fan Party</t>
+          <t>02 Paint with Puppies by Barket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 14 Jun 2025</t>
+          <t>Sun 15 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3 Hours</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -595,27 +595,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Veranda: Khar</t>
+          <t>BeeYoung Brewgarden: Delhi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹ 499 onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
+          <t>02_Paint with Puppies by Barket.png</t>
         </is>
       </c>
     </row>
@@ -627,47 +627,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Comedy Nights @Comedy County</t>
+          <t>03 Pottery Workshop</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 9 Jun 2025</t>
+          <t>Sun 15 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thu 3 Jul 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>3:00PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹ 99 onwards</t>
+          <t>₹599 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Comedy Nights @Comedy County.png</t>
+          <t>03_Pottery Workshop.png</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Paint with Puppies by Barket</t>
+          <t>04 Best of Stand-up - Stand-up Comedy Show</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Wed 11 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Sun 15 Jun 2025</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>3 Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BeeYoung Brewgarden: Delhi</t>
+          <t>Laughter Nation Comedy Club, 7</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹299</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Paint with Puppies by Barket.png</t>
+          <t>04_Best of Stand-up - Stand-up Comedy Show.png</t>
         </is>
       </c>
     </row>
@@ -751,22 +751,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Best of Stand-up - Stand-up Comedy Show</t>
+          <t>05 Kenny Sebastian - A Crowd Work Show</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wed 11 Jun 2025</t>
+          <t>Thu 12 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -781,27 +781,89 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3 Hindi</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Laughter Nation Comedy Club, 7</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹ 99</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Best of Stand-up - Stand-up Comedy Show.png</t>
+          <t>05_Kenny Sebastian - A Crowd Work Show.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>#0006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>06 Swiftchella - A Taylor Swift-Themed Fan Party</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sat 14 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sat 12 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3:00 PM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3 Hours</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Veranda: Khar</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>06_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,22 +503,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Comedy Nights @Comedy County</t>
+          <t>01 Kaviraj Singh LIVE!!!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 9 Jun 2025</t>
+          <t>Sat 14 Jun 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thu 3 Jul 2025</t>
+          <t>Sat 5 Jul 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,22 +528,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>Guftagu Comedy Club: Gurugram</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Comedy Nights @Comedy County.png</t>
+          <t>01_Kaviraj Singh LIVE!!!.png</t>
         </is>
       </c>
     </row>
@@ -565,57 +565,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Paint with Puppies by Barket</t>
+          <t>02 Love, Death &amp; Ketchup by Varun Grover</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>Sun 10 Aug 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 31 Aug 2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BeeYoung Brewgarden: Delhi</t>
+          <t>Bal Gandharva Rang Mandir: 7</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Paint with Puppies by Barket.png</t>
+          <t>02_Love, Death &amp; Ketchup by Varun Grover.png</t>
         </is>
       </c>
     </row>
@@ -627,27 +627,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Pottery Workshop</t>
+          <t>03 Meet the Dinosaurs at North India Mall</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>Tue 10 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3:00PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>9 Hours</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹599 Onwards</t>
+          <t>₹99 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Pottery Workshop.png</t>
+          <t>03_Meet the Dinosaurs at North India Mall.png</t>
         </is>
       </c>
     </row>
@@ -689,17 +689,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Best of Stand-up - Stand-up Comedy Show</t>
+          <t>04 Just Joking - A Stand Up Comedy Line Up</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wed 11 Jun 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>Thu 26 Jun 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -719,27 +719,27 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3 Hindi</t>
+          <t>(apne oi @3 Hindi, English</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Laughter Nation Comedy Club, 7</t>
+          <t>Happy High: Delhi</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹499</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Best of Stand-up - Stand-up Comedy Show.png</t>
+          <t>04_Just Joking - A Stand Up Comedy Line Up.png</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Kenny Sebastian - A Crowd Work Show</t>
+          <t>05 Blunt by Onkar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu 12 Jun 2025</t>
+          <t>Sat 14 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Kenny Sebastian - A Crowd Work Show.png</t>
+          <t>05_Blunt by Onkar.png</t>
         </is>
       </c>
     </row>
@@ -813,57 +813,243 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Swiftchella - A Taylor Swift-Themed Fan Party</t>
+          <t>06 FUNKY ISLAND - JASOLA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Wed 11 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11 Hours</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4yrs+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Funky Island - Jasola: Delhi</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>₹990 Onwards</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>06_FUNKY ISLAND - JASOLA.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>#0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07 PS - I Love You By Pranav Sharma</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Sat 14 Jun 2025</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sat 12 Jul 2025</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3:00 PM</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3 Hours</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sun 20 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Mysore Association Auditorium</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>₹399</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>07_PS - I Love You By Pranav Sharma.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>#0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08 Mauka Ya Dhoka Ft. Inder Sahani</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fri 13 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Veranda: Khar</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9:30 PM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>₹499 Onwards</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Fast Filling</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>06_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>08_Mauka Ya Dhoka Ft. Inder Sahani.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>#0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09 Pratyush Chaubey Live</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sun 20 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8:30 PM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>_L_| The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>09_Pratyush Chaubey Live.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,22 +503,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Kaviraj Singh LIVE!!!</t>
+          <t>01 Vipul Goyal-Unleashed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 14 Jun 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sat 5 Jul 2025</t>
+          <t>Sun 13 Jul 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>5:15 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -538,12 +538,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Guftagu Comedy Club: Gurugram</t>
+          <t>Studio XO Bar, Sector 29: Gurugram</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹899 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Kaviraj Singh LIVE!!!.png</t>
+          <t>01_Vipul Goyal-Unleashed.png</t>
         </is>
       </c>
     </row>
@@ -565,47 +565,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Love, Death &amp; Ketchup by Varun Grover</t>
+          <t>02 Swiftchella - A Taylor Swift-Themed Fan Party</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 10 Aug 2025</t>
+          <t>Sat 14 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sun 31 Aug 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>3 Hours</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bal Gandharva Rang Mandir: 7</t>
+          <t>Veranda: Khar &lt;/</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Love, Death &amp; Ketchup by Varun Grover.png</t>
+          <t>02_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
         </is>
       </c>
     </row>
@@ -627,57 +627,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Meet the Dinosaurs at North India Mall</t>
+          <t>03 Waqt Ki Baatein Tour by Dream Note</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 10 Jun 2025</t>
+          <t>Fri 11 Jul 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sun 24 Aug 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9 Hours</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Bira 91 Taproom, Kamala Milla: Mumbai</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹99 Onwards</t>
+          <t>₹699</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Meet the Dinosaurs at North India Mall.png</t>
+          <t>03_Waqt Ki Baatein Tour by Dream Note.png</t>
         </is>
       </c>
     </row>
@@ -689,22 +689,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Just Joking - A Stand Up Comedy Line Up</t>
+          <t>04 Comedy Show Noida Sector 18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tue 24 Jun 2025</t>
+          <t>Wed 11 Jun 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thu 26 Jun 2025</t>
+          <t>Fri 13 Jun 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -719,17 +719,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(apne oi @3 Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Happy High: Delhi</t>
+          <t>Highlane Comedy Club: Noida</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Just Joking - A Stand Up Comedy Line Up.png</t>
+          <t>04_Comedy Show Noida Sector 18.png</t>
         </is>
       </c>
     </row>
@@ -751,57 +751,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Blunt by Onkar</t>
+          <t>05 Adult Standup Comedy Show</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sat 14 Jun 2025</t>
+          <t>Wed 11 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Sun 15 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9:30PM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5:00 PM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1 Hour</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Blunt by Onkar.png</t>
+          <t>05_Adult Standup Comedy Show.png</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 FUNKY ISLAND - JASOLA</t>
+          <t>06 Alien World at Airia Mall</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -828,32 +828,32 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11 Hours</t>
+          <t>5 Hours</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Funky Island - Jasola: Delhi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹990 Onwards</t>
+          <t>₹249 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_FUNKY ISLAND - JASOLA.png</t>
+          <t>06_Alien World at Airia Mall.png</t>
         </is>
       </c>
     </row>
@@ -875,22 +875,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07 PS - I Love You By Pranav Sharma</t>
+          <t>07 Best of Stand-up - Stand-up Comedy Show</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sat 14 Jun 2025</t>
+          <t>Wed 11 Jun 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Sun 15 Jun 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -905,27 +905,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Mysore Association Auditorium</t>
+          <t>Laughter Nation Comedy Club</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹399</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>07_PS - I Love You By Pranav Sharma.png</t>
+          <t>07_Best of Stand-up - Stand-up Comedy Show.png</t>
         </is>
       </c>
     </row>
@@ -937,22 +937,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08 Mauka Ya Dhoka Ft. Inder Sahani</t>
+          <t>08 So Mini Things with Shraddha Jain- One Last Time</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fri 13 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 9 Aug 2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9:30 PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -962,94 +962,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>6yrs+</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>‘Shanmukhananda Hall: Mumbai</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>08_Mauka Ya Dhoka Ft. Inder Sahani.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>#0009</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>09 Pratyush Chaubey Live</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sun 20 Jul 2025</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8:30 PM</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1 hour 30 minutes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>_L_| The Laugh Store: DLF Cyberhub</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>₹499</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>09_Pratyush Chaubey Live.png</t>
+          <t>08_So Mini Things with Shraddha Jain- One Last Time.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,22 +503,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Vipul Goyal-Unleashed</t>
+          <t>01 Comedy Nights @Comedy County</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Mon 9 Jun 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sun 13 Jul 2025</t>
+          <t>Thu 3 Jul 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5:15 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,17 +533,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Studio XO Bar, Sector 29: Gurugram</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹899 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Vipul Goyal-Unleashed.png</t>
+          <t>01_Comedy Nights @Comedy County.png</t>
         </is>
       </c>
     </row>
@@ -565,27 +565,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Swiftchella - A Taylor Swift-Themed Fan Party</t>
+          <t>02 Paint with Puppies by Barket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 14 Jun 2025</t>
+          <t>Sun 15 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3 Hours</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -595,27 +595,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Veranda: Khar &lt;/</t>
+          <t>BeeYoung Brewgarden: Delhi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
+          <t>02_Paint with Puppies by Barket.png</t>
         </is>
       </c>
     </row>
@@ -627,22 +627,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Waqt Ki Baatein Tour by Dream Note</t>
+          <t>03 Pottery Workshop</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fri 11 Jul 2025</t>
+          <t>Sun 15 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sun 24 Aug 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>3:00PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -652,32 +652,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Bira 91 Taproom, Kamala Milla: Mumbai</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹699</t>
+          <t>₹599 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Waqt Ki Baatein Tour by Dream Note.png</t>
+          <t>03_Pottery Workshop.png</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Comedy Show Noida Sector 18</t>
+          <t>04 Best of Stand-up - Stand-up Comedy Show</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -699,12 +699,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fri 13 Jun 2025</t>
+          <t>Sun 15 Jun 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -719,27 +719,27 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>3 Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Highlane Comedy Club: Noida</t>
+          <t>Laughter Nation Comedy Club, 7</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹299</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Comedy Show Noida Sector 18.png</t>
+          <t>04_Best of Stand-up - Stand-up Comedy Show.png</t>
         </is>
       </c>
     </row>
@@ -751,57 +751,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Adult Standup Comedy Show</t>
+          <t>05 Kenny Sebastian - A Crowd Work Show</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wed 11 Jun 2025</t>
+          <t>Thu 12 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9:30PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Adult Standup Comedy Show.png</t>
+          <t>05_Kenny Sebastian - A Crowd Work Show.png</t>
         </is>
       </c>
     </row>
@@ -813,27 +813,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Alien World at Airia Mall</t>
+          <t>06 Swiftchella - A Taylor Swift-Themed Fan Party</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wed 11 Jun 2025</t>
+          <t>Sat 14 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5 Hours</t>
+          <t>3 Hours</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -843,151 +843,27 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Veranda: Khar</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹249 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_Alien World at Airia Mall.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>#0007</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>07 Best of Stand-up - Stand-up Comedy Show</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Wed 11 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sun 15 Jun 2025</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8:00 PM</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1 hour 15 minutes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Laughter Nation Comedy Club</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>₹299 Onwards</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>07_Best of Stand-up - Stand-up Comedy Show.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>#0008</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>08 So Mini Things with Shraddha Jain- One Last Time</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sat 28 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Sat 9 Aug 2025</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4:00 PM</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1 hour 30 minutes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>6yrs+</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>English, Hindi</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>‘Shanmukhananda Hall: Mumbai</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>₹999 Onwards</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>08_So Mini Things with Shraddha Jain- One Last Time.png</t>
+          <t>06_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,47 +503,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Comedy Nights @Comedy County</t>
+          <t>01 PRACTICE - A Standup Comedy Show by Manik Mahna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 9 Jun 2025</t>
+          <t>Sat 14 Jun 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thu 3 Jul 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>9:30 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>Mysore Association Auditorium: Mumbai</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹799</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Comedy Nights @Comedy County.png</t>
+          <t>01_PRACTICE - A Standup Comedy Show by Manik Mahna.png</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Paint with Puppies by Barket</t>
+          <t>02 Girish And The Chronicles (Originals &amp; Covers)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -590,32 +590,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BeeYoung Brewgarden: Delhi</t>
+          <t>Hard Rock Cafe: Delhi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹499</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Paint with Puppies by Barket.png</t>
+          <t>02_Girish And The Chronicles (Originals &amp; Covers).png</t>
         </is>
       </c>
     </row>
@@ -627,22 +627,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Pottery Workshop</t>
+          <t>03 Waqt Ki Baatein Tour by Dream Note</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>Fri 11 Jul 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sun 24 Aug 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3:00PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -652,32 +652,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Bira 91 Taproom, Kamala Milla</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹599 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Pottery Workshop.png</t>
+          <t>03_Waqt Ki Baatein Tour by Dream Note.png</t>
         </is>
       </c>
     </row>
@@ -689,22 +689,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Best of Stand-up - Stand-up Comedy Show</t>
+          <t>04 PS - I Love You By Pranav Sharma</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wed 11 Jun 2025</t>
+          <t>Sat 14 Jun 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -719,27 +719,27 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3 Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Laughter Nation Comedy Club, 7</t>
+          <t>Mysore Association Auditorium</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹399</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Best of Stand-up - Stand-up Comedy Show.png</t>
+          <t>04_PS - I Love You By Pranav Sharma.png</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Kenny Sebastian - A Crowd Work Show</t>
+          <t>05 Blunt by Onkar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu 12 Jun 2025</t>
+          <t>Sat 14 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Kenny Sebastian - A Crowd Work Show.png</t>
+          <t>05_Blunt by Onkar.png</t>
         </is>
       </c>
     </row>
@@ -813,57 +813,863 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Swiftchella - A Taylor Swift-Themed Fan Party</t>
+          <t>06 HCL Concerts presents Dr. L Subramaniam Live</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Kamani Auditorium: Delhi</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>06_HCL Concerts presents Dr. L Subramaniam Live.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>#0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>07_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>#0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08 Room XO Presents Mika Singh</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sat 5 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4 Hours</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>21yrs+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Room Xo: Gurugram</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>08_Room XO Presents Mika Singh.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>#0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09 Rupali Tyagi Live</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Sat 14 Jun 2025</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sat 12 Jul 2025</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3:00 PM</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Nojoto Creator Hub: Delhi</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>₹399</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>09_Rupali Tyagi Live.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>#0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10 Sit Down Ashish ft. Ashish Vidyarthi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sat 5 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7:00PM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3yrs+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>@3 Hindi</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Guftagu Comedy Club: Gurugram</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10_Sit Down Ashish ft. Ashish Vidyarthi.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11 Blind Date</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>11_Blind Date.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>#0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12 Paint with Puppies by Barket</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sun 15 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>BeeYoung Brewgarden: Delhi &lt;/</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>12_Paint with Puppies by Barket.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>#0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13 Best of Stand-up - Stand-up Comedy Show</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fri 13 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sun 15 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9:30 PM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Laughter Nation Comedy Club</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>13_Best of Stand-up - Stand-up Comedy Show.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>#0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14 A NIGHT OF LAUGHTER FT GAURAV GUPTA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sun 10 Aug 2025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7:30 PM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Plenary Hall Bharat Mandapam</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>₹200 Onwards</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>14_A NIGHT OF LAUGHTER FT GAURAV GUPTA.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>#0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15 Comedy Nights @Comedy County</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fri 13 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thu 3 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Comedy County: Noida</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15_Comedy Nights @Comedy County.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16 Nayab Midha Live</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Wed 18 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>₹799</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16_Nayab Midha Live.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>#0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17 Swiftchella - A Taylor Swift-Themed Fan Party</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sat 14 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sun 13 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>3 Hours</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Veranda: Khar</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>₹499 Onwards</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>17_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18 Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sun 27 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2 hours 30 minutes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3yrs+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Plenary Hall Bharat Mandapam</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Fast Filling</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>06_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18_Jazbaa Ft Rekha Bhardwaj Live in Concert.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>#0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19 Telling Lies -A Standup Solo by Aashish Solanki</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Wed 2 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>BR English, Hindi</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>₹599</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>19_Telling Lies -A Standup Solo by Aashish Solanki.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -503,57 +503,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Adult Jokes Only</t>
+          <t>01 Comedy Nights @Comedy County</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mon 9 Jun 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Thu 3 Jul 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Adult Jokes Only.png</t>
+          <t>01_Comedy Nights @Comedy County.png</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Kal Ki Chinta Nahi Karta ft.Ravi Gupta</t>
+          <t>02 Paint with Puppies by Barket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue 17 Jun 2025</t>
+          <t>Sun 15 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,32 +580,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>BeeYoung Brewgarden: Delhi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Kal Ki Chinta Nahi Karta ft.Ravi Gupta.png</t>
+          <t>02_Paint with Puppies by Barket.png</t>
         </is>
       </c>
     </row>
@@ -627,57 +627,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Shamik Chakrabarti Live</t>
+          <t>03 Pottery Workshop</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sat 14 Jun 2025</t>
+          <t>Sun 15 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>3:00PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>@3 English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹599 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Shamik Chakrabarti Live.png</t>
+          <t>03_Pottery Workshop.png</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 FUNKY ISLAND - JASOLA</t>
+          <t>04 Best of Stand-up - Stand-up Comedy Show</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Wed 11 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Sun 15 Jun 2025</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mon 30 Jun 2025</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>3 Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Funky Island - Jasola: Delhi</t>
+          <t>Laughter Nation Comedy Club, 7</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹990 Onwards</t>
+          <t>₹299</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_FUNKY ISLAND - JASOLA.png</t>
+          <t>04_Best of Stand-up - Stand-up Comedy Show.png</t>
         </is>
       </c>
     </row>
@@ -751,27 +751,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Open Mic - Comedy &amp; Poetry.</t>
+          <t>05 Kenny Sebastian - A Crowd Work Show</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sat 14 Jun 2025</t>
+          <t>Thu 12 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -781,27 +781,27 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>English, Hindi, Punjabi</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Buddy On Stage: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹249 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Open Mic - Comedy &amp; Poetry..png</t>
+          <t>05_Kenny Sebastian - A Crowd Work Show.png</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Kids Summer Camp</t>
+          <t>06 Swiftchella - A Taylor Swift-Themed Fan Party</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -823,47 +823,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>3 Hours</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Veranda: Khar</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹250</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_Kids Summer Camp.png</t>
+          <t>06_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,47 +503,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Comedy Nights @Comedy County</t>
+          <t>01 Life ka Tamasha by Amandeep Khayal - Delhi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 9 Jun 2025</t>
+          <t>Sun 6 Jul 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thu 3 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>Aiwan-E-Ghalib Auditorium: Delhi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Comedy Nights @Comedy County.png</t>
+          <t>01_Life ka Tamasha by Amandeep Khayal - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -565,27 +565,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Paint with Puppies by Barket</t>
+          <t>02 Pottery Painting</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>Sat 21 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -595,17 +595,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BeeYoung Brewgarden: Delhi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹599 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Paint with Puppies by Barket.png</t>
+          <t>02_Pottery Painting.png</t>
         </is>
       </c>
     </row>
@@ -627,57 +627,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Pottery Workshop</t>
+          <t>03 Vipul Goyal-Unleashed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sun 13 Jul 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3:00PM</t>
+          <t>5:15 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Studio XO Bar, Sector 29: Gurugram</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹599 Onwards</t>
+          <t>₹899 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Pottery Workshop.png</t>
+          <t>03_Vipul Goyal-Unleashed.png</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Best of Stand-up - Stand-up Comedy Show</t>
+          <t>04 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wed 11 Jun 2025</t>
+          <t>Sat 1 Nov 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sun 15 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3 Hindi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Laughter Nation Comedy Club, 7</t>
+          <t>Gymkhana Club: Gurugram</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Best of Stand-up - Stand-up Comedy Show.png</t>
+          <t>04_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
         </is>
       </c>
     </row>
@@ -751,27 +751,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Kenny Sebastian - A Crowd Work Show</t>
+          <t>05 Halki Halki Fati By Vikas Kush Sharma</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu 12 Jun 2025</t>
+          <t>Fri 20 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 7 Sep 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:30 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -781,17 +781,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Baroda Productivity Council</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Kenny Sebastian - A Crowd Work Show.png</t>
+          <t>05_Halki Halki Fati By Vikas Kush Sharma.png</t>
         </is>
       </c>
     </row>
@@ -813,57 +813,863 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Swiftchella - A Taylor Swift-Themed Fan Party</t>
+          <t>06 Comedy Nights Noida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sat 14 Jun 2025</t>
+          <t>Mon 16 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Tue 1 Jul 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Veranda: Khar</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>06_Comedy Nights Noida.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>#0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07 Young Adult! ft.Gurleen Pannu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fri 4 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sun 24 Aug 2025</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6:00 PM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Y.B. Chavan Auditorium: Mumbai</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>07_Young Adult! ft.Gurleen Pannu.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>#0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08 The Lineup ft. Gourav, Himanshu, Inder &amp; Pawan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 16 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9:30 PM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>₹399 Onwards</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>08_The Lineup ft. Gourav, Himanshu, Inder &amp; Pawan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>#0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09 The Duo ft. Harsh Gujral &amp; Rahul Dua</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 23 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>09_The Duo ft. Harsh Gujral &amp; Rahul Dua.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>#0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10 ALLOW ME - A Standup Comedy Show by Rahul Dua</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>₹499 Onwards</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Fast Filling</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>06_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10_ALLOW ME - A Standup Comedy Show by Rahul Dua.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11 Moon Lamp workshop</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tue 17 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sun 13 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2Hours</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>11_Moon Lamp workshop.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>#0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12 Open Mic</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 16 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue 17 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>₹299</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>12_Open Mic.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>#0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13 Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Thu 26 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9:00PM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2hours 15 minutes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>83 Hindi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>13_Kisi Ko Batana Mat By Anubhav Singh Bassi.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>#0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14 Meet the Dinosaurs at North India Mall</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tue 17 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon 30 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9 Hours</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>₹99 Onwards</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>14_Meet the Dinosaurs at North India Mall.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>#0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15 Comedy Nights @Comedy County</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 16 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thu 3 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Comedy County: Noida</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15_Comedy Nights @Comedy County.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16 The Lineup ft. Chirag, Pranav, Kaustubh &amp; Vivek</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16_The Lineup ft. Chirag, Pranav, Kaustubh &amp; Vivek.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>#0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17 Tum, Main aur Ishq - Ashish Bagrecha</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sun 20 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>17_Tum, Main aur Ishq - Ashish Bagrecha.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18 Best of Laugh Store ft. Manik, Maheep &amp; Swati</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tue 1 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thu 3 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>9:30 PM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>@3_ Hindi, English</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>₹599</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18_Best of Laugh Store ft. Manik, Maheep &amp; Swati.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>#0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19 Mauka Ya Dhoka Ft. Inder Sahani</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fri 25 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9:30 PM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>₹399 Onwards</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>19_Mauka Ya Dhoka Ft. Inder Sahani.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,12 +503,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Life ka Tamasha by Amandeep Khayal - Delhi</t>
+          <t>01 Jo Bolta Hai Wahi Hota Hai Ft. Harsh Gujral- Delhi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun 6 Jul 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>7:30 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Aiwan-E-Ghalib Auditorium: Delhi</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Life ka Tamasha by Amandeep Khayal - Delhi.png</t>
+          <t>01_Jo Bolta Hai Wahi Hota Hai Ft. Harsh Gujral- Delhi.png</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Pottery Painting</t>
+          <t>02 Shaadi Shud I By Mohammed Hussain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -605,17 +605,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹599 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Pottery Painting.png</t>
+          <t>02_Shaadi Shud I By Mohammed Hussain.png</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Vipul Goyal-Unleashed</t>
+          <t>03 Sufi Night ft. Sultani Brothers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -637,47 +637,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sun 13 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5:15 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Studio XO Bar, Sector 29: Gurugram</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹899 Onwards</t>
+          <t>₹199</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Vipul Goyal-Unleashed.png</t>
+          <t>03_Sufi Night ft. Sultani Brothers.png</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+          <t>04 Sip and Paint - Mug Painting</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sat 1 Nov 2025</t>
+          <t>Fri 18 Jul 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -704,42 +704,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>BR English, Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Gymkhana Club: Gurugram</t>
+          <t>Soaked in Canvas: Gurugram</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
+          <t>04_Sip and Paint - Mug Painting.png</t>
         </is>
       </c>
     </row>
@@ -751,47 +751,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Halki Halki Fati By Vikas Kush Sharma</t>
+          <t>05 Kaviraj Singh LIVE!!!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fri 20 Jun 2025</t>
+          <t>Sat 21 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sun 7 Sep 2025</t>
+          <t>Sat 5 Jul 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Baroda Productivity Council</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹449 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Halki Halki Fati By Vikas Kush Sharma.png</t>
+          <t>05_Kaviraj Singh LIVE!!!.png</t>
         </is>
       </c>
     </row>
@@ -813,27 +813,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Comedy Nights Noida</t>
+          <t>06 STAND UP COMEDY SHOW</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 16 Jun 2025</t>
+          <t>Wed 18 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue 1 Jul 2025</t>
+          <t>Wed 9 Jul 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>8:30 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>Xero Degrees: Gurgaon</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹149 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_Comedy Nights Noida.png</t>
+          <t>06_STAND UP COMEDY SHOW.png</t>
         </is>
       </c>
     </row>
@@ -875,27 +875,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07 Young Adult! ft.Gurleen Pannu</t>
+          <t>07 BLUNT ft. Onkar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fri 4 Jul 2025</t>
+          <t>Wed 18 Jun 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sun 24 Aug 2025</t>
+          <t>Sun 6 Jul 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -905,27 +905,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Y.B. Chavan Auditorium: Mumbai</t>
+          <t>The J Spot, Juhu: Mumbai</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>07_Young Adult! ft.Gurleen Pannu.png</t>
+          <t>07_BLUNT ft. Onkar.png</t>
         </is>
       </c>
     </row>
@@ -937,47 +937,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08 The Lineup ft. Gourav, Himanshu, Inder &amp; Pawan</t>
+          <t>08 Hand Built Pottery</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 16 Jun 2025</t>
+          <t>Tue 17 Jun 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 5 Jul 2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9:30 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Bengali, English, Hindi, Kannada,</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>@ Tiny House Cafe: Indore</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>08_The Lineup ft. Gourav, Himanshu, Inder &amp; Pawan.png</t>
+          <t>08_Hand Built Pottery.png</t>
         </is>
       </c>
     </row>
@@ -999,47 +999,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09 The Duo ft. Harsh Gujral &amp; Rahul Dua</t>
+          <t>09 Rahgir  Kya Jaipur Kya Dilli Tour</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 23 Jun 2025</t>
+          <t>Sat 21 Jun 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>5:30 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Mehendi Navaz Jung Hall: q</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>09_The Duo ft. Harsh Gujral &amp; Rahul Dua.png</t>
+          <t>09_Rahgir  Kya Jaipur Kya Dilli Tour.png</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10 ALLOW ME - A Standup Comedy Show by Rahul Dua</t>
+          <t>10 Texture Art ft. ChalkBooard</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fri 20 Jun 2025</t>
+          <t>Sat 21 Jun 2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1086,32 +1086,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹599 Onwards</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10_ALLOW ME - A Standup Comedy Show by Rahul Dua.png</t>
+          <t>10_Texture Art ft. ChalkBooard.png</t>
         </is>
       </c>
     </row>
@@ -1123,47 +1123,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11 Moon Lamp workshop</t>
+          <t>11 TELLING LIES-A STANDUP SOLO BY AASHISH SOLANKI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tue 17 Jun 2025</t>
+          <t>Sat 21 Jun 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sun 13 Jul 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Y.B. Chavan Auditorium: Mumbai</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11_Moon Lamp workshop.png</t>
+          <t>11_TELLING LIES-A STANDUP SOLO BY AASHISH SOLANKI.png</t>
         </is>
       </c>
     </row>
@@ -1185,27 +1185,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12 Open Mic</t>
+          <t>12 PS - I Love You By Pranav Sharma</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon 16 Jun 2025</t>
+          <t>Sat 21 Jun 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue 17 Jun 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1220,22 +1220,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Mysore Association Auditorium</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12_Open Mic.png</t>
+          <t>12_PS - I Love You By Pranav Sharma.png</t>
         </is>
       </c>
     </row>
@@ -1247,47 +1247,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13 Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
+          <t>13 Pottery Workshop</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thu 26 Jun 2025</t>
+          <t>Sat 21 Jun 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9:00PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2hours 15 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>83 Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13_Kisi Ko Batana Mat By Anubhav Singh Bassi.png</t>
+          <t>13_Pottery Workshop.png</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14 Meet the Dinosaurs at North India Mall</t>
+          <t>14 Standup Stars - The Best of Stand-Up</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1319,37 +1319,37 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9 Hours</t>
+          <t>1 hour 20 minutes</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Laughter Nation Comedy Club</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>₹99 Onwards</t>
+          <t>₹249 Onwards</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1359,317 +1359,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>14_Meet the Dinosaurs at North India Mall.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>#0015</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>15 Comedy Nights @Comedy County</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 16 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Thu 3 Jul 2025</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9:00 PM</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1 hour 15 minutes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Comedy County: Noida</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>₹299 Onwards</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>15_Comedy Nights @Comedy County.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>#0016</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>16 The Lineup ft. Chirag, Pranav, Kaustubh &amp; Vivek</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>16_The Lineup ft. Chirag, Pranav, Kaustubh &amp; Vivek.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>#0017</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>17 Tum, Main aur Ishq - Ashish Bagrecha</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sat 21 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Sun 20 Jul 2025</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7:00 PM</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2 Hours</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>₹499 Onwards</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Fast Filling</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>17_Tum, Main aur Ishq - Ashish Bagrecha.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>#0018</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>18 Best of Laugh Store ft. Manik, Maheep &amp; Swati</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Tue 1 Jul 2025</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Thu 3 Jul 2025</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>9:30 PM</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1 hour 30 minutes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>18yrs+</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>@3_ Hindi, English</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>₹599</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>18_Best of Laugh Store ft. Manik, Maheep &amp; Swati.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>#0019</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>19 Mauka Ya Dhoka Ft. Inder Sahani</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Fri 25 Jul 2025</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9:30 PM</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1 hour 30 minutes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Hindi, English</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>₹399 Onwards</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>19_Mauka Ya Dhoka Ft. Inder Sahani.png</t>
+          <t>14_Standup Stars - The Best of Stand-Up.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,12 +565,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Shaadi Shud I By Mohammed Hussain</t>
+          <t>01 Life ka Tamasha by Amandeep Khayal - Delhi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 6 Jul 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,42 +580,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Aiwan-E-Ghalib Auditorium: Delhi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Shaadi Shud I By Mohammed Hussain.png</t>
+          <t>01_Life ka Tamasha by Amandeep Khayal - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -627,27 +627,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Sufi Night ft. Sultani Brothers</t>
+          <t>02 Pottery Painting</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Sat 21 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹199</t>
+          <t>₹599 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Sufi Night ft. Sultani Brothers.png</t>
+          <t>02_Pottery Painting.png</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Sip and Paint - Mug Painting</t>
+          <t>02 Shaadi Shud I By Mohammed Hussain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fri 18 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -704,27 +704,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BR English, Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Soaked in Canvas: Gurugram</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Sip and Paint - Mug Painting.png</t>
+          <t>02_Shaadi Shud I By Mohammed Hussain.png</t>
         </is>
       </c>
     </row>
@@ -751,57 +751,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Kaviraj Singh LIVE!!!</t>
+          <t>03 Sufi Night ft. Sultani Brothers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sat 5 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹449 Onwards</t>
+          <t>₹199</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Kaviraj Singh LIVE!!!.png</t>
+          <t>03_Sufi Night ft. Sultani Brothers.png</t>
         </is>
       </c>
     </row>
@@ -813,27 +813,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 STAND UP COMEDY SHOW</t>
+          <t>03 Vipul Goyal-Unleashed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wed 18 Jun 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 9 Jul 2025</t>
+          <t>Sun 13 Jul 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8:30 PM</t>
+          <t>5:15 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -848,22 +848,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Xero Degrees: Gurgaon</t>
+          <t>Studio XO Bar, Sector 29: Gurugram</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹149 Onwards</t>
+          <t>₹899 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_STAND UP COMEDY SHOW.png</t>
+          <t>03_Vipul Goyal-Unleashed.png</t>
         </is>
       </c>
     </row>
@@ -875,42 +875,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07 BLUNT ft. Onkar</t>
+          <t>04 Sip and Paint - Mug Painting</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wed 18 Jun 2025</t>
+          <t>Fri 18 Jul 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sun 6 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>BQ English, Hindi</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>The J Spot, Juhu: Mumbai</t>
+          <t>Soaked in Canvas: Gurugram</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>07_BLUNT ft. Onkar.png</t>
+          <t>04_Sip and Paint - Mug Painting.png</t>
         </is>
       </c>
     </row>
@@ -937,42 +937,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08 Hand Built Pottery</t>
+          <t>04 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tue 17 Jun 2025</t>
+          <t>Sat 1 Nov 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sat 5 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bengali, English, Hindi, Kannada,</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>@ Tiny House Cafe: Indore</t>
+          <t>Gymkhana Club: Gurugram</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>08_Hand Built Pottery.png</t>
+          <t>04_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
         </is>
       </c>
     </row>
@@ -999,47 +999,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09 Rahgir  Kya Jaipur Kya Dilli Tour</t>
+          <t>05 Halki Halki Fati By Vikas Kush Sharma</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>Fri 20 Jun 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sun 7 Sep 2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5:30 PM</t>
+          <t>7:30 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Mehendi Navaz Jung Hall: q</t>
+          <t>Baroda Productivity Council</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>09_Rahgir  Kya Jaipur Kya Dilli Tour.png</t>
+          <t>05_Halki Halki Fati By Vikas Kush Sharma.png</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10 Texture Art ft. ChalkBooard</t>
+          <t>05 Kaviraj Singh LIVE!!!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1071,47 +1071,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 5 Jul 2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>₹599 Onwards</t>
+          <t>₹449 Onwards</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10_Texture Art ft. ChalkBooard.png</t>
+          <t>05_Kaviraj Singh LIVE!!!.png</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11 TELLING LIES-A STANDUP SOLO BY AASHISH SOLANKI</t>
+          <t>06 Comedy Nights Noida</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>Mon 16 Jun 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Tue 1 Jul 2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1153,17 +1153,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Y.B. Chavan Auditorium: Mumbai</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11_TELLING LIES-A STANDUP SOLO BY AASHISH SOLANKI.png</t>
+          <t>06_Comedy Nights Noida.png</t>
         </is>
       </c>
     </row>
@@ -1185,27 +1185,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12 PS - I Love You By Pranav Sharma</t>
+          <t>06 STAND UP COMEDY SHOW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>Wed 18 Jun 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Wed 9 Jul 2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2:00 PM</t>
+          <t>8:30 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1220,22 +1220,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Mysore Association Auditorium</t>
+          <t>Xero Degrees: Gurgaon</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹149 Onwards</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12_PS - I Love You By Pranav Sharma.png</t>
+          <t>06_STAND UP COMEDY SHOW.png</t>
         </is>
       </c>
     </row>
@@ -1247,57 +1247,57 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13 Pottery Workshop</t>
+          <t>07 BLUNT ft. Onkar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>Wed 18 Jun 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sun 6 Jul 2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The J Spot, Juhu: Mumbai</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13_Pottery Workshop.png</t>
+          <t>07_BLUNT ft. Onkar.png</t>
         </is>
       </c>
     </row>
@@ -1309,57 +1309,1235 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>07 Young Adult! ft.Gurleen Pannu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fri 4 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sun 24 Aug 2025</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6:00 PM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Y.B. Chavan Auditorium: Mumbai</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>07_Young Adult! ft.Gurleen Pannu.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>#0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>08 Hand Built Pottery</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tue 17 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sat 5 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bengali, English, Hindi, Kannada,</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>@ Tiny House Cafe: Indore</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>08_Hand Built Pottery.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>08 The Lineup ft. Gourav, Himanshu, Inder &amp; Pawan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 16 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9:30 PM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>₹399 Onwards</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>08_The Lineup ft. Gourav, Himanshu, Inder &amp; Pawan.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>#0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>09 Rahgir  Kya Jaipur Kya Dilli Tour</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sat 12 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5:30 PM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2Hours</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>12yrs+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Mehendi Navaz Jung Hall: V</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>09_Rahgir  Kya Jaipur Kya Dilli Tour.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>09 The Duo ft. Harsh Gujral &amp; Rahul Dua</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 23 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>09_The Duo ft. Harsh Gujral &amp; Rahul Dua.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>#0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10 ALLOW ME - A Standup Comedy Show by Rahul Dua</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>10_ALLOW ME - A Standup Comedy Show by Rahul Dua.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>#0020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10 Texture Art ft. ChalkBooard</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>₹599 Onwards</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>10_Texture Art ft. ChalkBooard.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>#0021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11 Moon Lamp workshop</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tue 17 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sun 13 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2Hours</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>11_Moon Lamp workshop.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>#0022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11 TELLING LIES-A STANDUP SOLO BY AASHISH SOLANKI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sun 27 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Y.B. Chavan Auditorium: Mumbai</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>11_TELLING LIES-A STANDUP SOLO BY AASHISH SOLANKI.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>#0023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>12 Open Mic</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 16 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue 17 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>₹299</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>12_Open Mic.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>#0024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12 PS - I Love You By Pranav Sharma</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sun 27 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Mysore Association Auditorium</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>12_PS - I Love You By Pranav Sharma.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>#0025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>13 Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Thu 26 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>9:00PM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2hours 15 minutes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>13_Kisi Ko Batana Mat By Anubhav Singh Bassi.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>#0026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13 Pottery Workshop</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sun 29 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>13_Pottery Workshop.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>#0027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14 Meet the Dinosaurs at North India Mall</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tue 17 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 30 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9 Hours</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>₹99 Onwards</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>14_Meet the Dinosaurs at North India Mall.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>#0028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>14 Standup Stars - The Best of Stand-Up</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Tue 17 Jun 2025</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Sat 12 Jul 2025</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>8:00 PM</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1 hour 20 minutes</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>18yrs+</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>English, Hindi</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Laughter Nation Comedy Club</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>₹249 Onwards</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>14_Standup Stars - The Best of Stand-Up.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>#0029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15 Comedy Nights @Comedy County</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mon 16 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thu 3 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Comedy County: Noida</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>15_Comedy Nights @Comedy County.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>#0030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16 The Lineup ft. Chirag, Pranav, Kaustubh &amp; Vivek</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>16_The Lineup ft. Chirag, Pranav, Kaustubh &amp; Vivek.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>#0031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17 Tum, Main aur Ishq - Ashish Bagrecha</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sun 20 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>17_Tum, Main aur Ishq - Ashish Bagrecha.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>#0032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>18 Best of Laugh Store ft. Manik, Maheep &amp; Swati</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Tue 1 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu 3 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>9:30 PM</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>@3_ Hindi, English</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>₹599</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>18_Best of Laugh Store ft. Manik, Maheep &amp; Swati.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>#0033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>19 Mauka Ya Dhoka Ft. Inder Sahani</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fri 25 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>9:30 PM</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>₹399 Onwards</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>19_Mauka Ya Dhoka Ft. Inder Sahani.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,57 +503,1359 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Cap Mania Tour ft Himesh Reshammiya</t>
+          <t>01 KidZania Delhi NCR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon 30 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10 Hours</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>KidZania: Noida</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>₹531 Onwards</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>01_KidZania Delhi NCR.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>#0002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>02 DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sat 12 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5 Hours</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>21yrs+</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Room Xo: Gurugram &lt;/</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>02_DJ Chetas - Chandni Bar Meets Bollywood (Gurugram).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>#0003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>03 Life ka Tamasha by Amandeep Khayal - Delhi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sun 6 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8:00 PM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12yrs+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Aiwan-E-Ghalib Auditorium: Delhi</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>03_Life ka Tamasha by Amandeep Khayal - Delhi.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>#0004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>04 Adult Jokes Only</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TOT Studio: Delhi</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>₹249 Onwards</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>04_Adult Jokes Only.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>#0005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>05 Urooj Ashfaq's It's Funny To Me</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>05_Urooj Ashfaq's It's Funny To Me.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>#0006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>06 Yoga with Puppies by Pawasana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Creative Detox Studio: Delhi</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>06_Yoga with Puppies by Pawasana.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>#0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07 World Music Weekend</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12 Hours</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3yrs+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>07_World Music Weekend.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>#0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08 Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 30 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>08_Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>#0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09 Crowd-Work Show by Manhar Seth</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sun 27 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8:30 PM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>09_Crowd-Work Show by Manhar Seth.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>#0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10 PRACTICE - A Standup Comedy Show by Manik Mahna</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sat 21 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Sun 20 Jul 2025</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6:00 PM</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4 Hours</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Mysore Association Auditorium</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>₹799</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10_PRACTICE - A Standup Comedy Show by Manik Mahna.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11 Halki Halki Fati By Vikas Kush Sharma</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sun 7 Sep 2025</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7:30 PM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Baroda Productivity Council</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>11_Halki Halki Fati By Vikas Kush Sharma.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>#0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12 Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thu 26 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9:00PM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2hours 15 minutes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>83 Hindi</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>12_Kisi Ko Batana Mat By Anubhav Singh Bassi.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>#0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13 Speed dating</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sun 16 Nov 2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5:30PM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>BR English, Hindi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Garden of Five Senses: Delhi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>13_Speed dating.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>#0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14 Circus Festival</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3yrs+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Auditorium: Ghaziabad</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>₹250 Onwards</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>14_Circus Festival.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>#0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15 Comedy Show Noida Sector 18</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Highlane Comedy Club: Noida</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15_Comedy Show Noida Sector 18.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16 Pottery Date</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sun 29 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>30 Minutes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bengali, English, Hindi, Kannada,</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>@ Conscious Coffee Cravings: Delhi</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16_Pottery Date.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>#0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17 LEGO SUMMER PLAYGROUND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>30 Minutes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>5yrs+</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>© Ambience Mall: Gurgaon</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>₹299</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>17_LEGO SUMMER PLAYGROUND.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18 Master Peace - Standup Comedy Show By Madhur Virli</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sun 10 Aug 2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Hindi, English</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Indira Gandhi Arena: Delhi</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>₹499 Onwards</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Bal Gandharva Rang Mandir: 7</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>₹699 Onwards</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Fast Filling</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>01_Cap Mania Tour ft Himesh Reshammiya.png</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18_Master Peace - Standup Comedy Show By Madhur Virli.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>#0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19 One Night StandUp - Standup comedy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sat 12 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8:00 PM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Laughter Nation Comedy Club</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>₹249 Onwards</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>19_One Night StandUp - Standup comedy.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>#0020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20 Best of Stand-up - Stand-up Comedy Show</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8:00 PM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Laughter Nation Comedy Club</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>20_Best of Stand-up - Stand-up Comedy Show.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>#0021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21 Comedy Nights Noida</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue 1 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Comedy County: Noida</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>21_Comedy Nights Noida.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>#0022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22 Perfume Making Workshop</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fri 20 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sat 5 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bengali, English, Hindi, Kannada,</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Lower Parel: Mumbai</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>22_Perfume Making Workshop.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 KidZania Delhi NCR</t>
+          <t>01 Van Gogh - An Immersive Story</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10 Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -533,17 +533,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>KidZania: Noida</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹531 Onwards</t>
+          <t>₹700 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_KidZania Delhi NCR.png</t>
+          <t>01_Van Gogh - An Immersive Story.png</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
+          <t>02 Passenger India Tour 2025 - New Delhi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Wed 19 Nov 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,32 +580,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>7:00PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5 Hours</t>
+          <t>2Hours</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>@ English</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Room Xo: Gurugram &lt;/</t>
+          <t>@ _DLF Cyberhub: Gurugram</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹500</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_DJ Chetas - Chandni Bar Meets Bollywood (Gurugram).png</t>
+          <t>02_Passenger India Tour 2025 - New Delhi.png</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Life ka Tamasha by Amandeep Khayal - Delhi</t>
+          <t>03 Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 6 Jul 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -642,32 +642,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12yrs+</t>
+          <t>3yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Aiwan-E-Ghalib Auditorium: Delhi</t>
+          <t>Plenary Hall Bharat Mandapam: Delhi</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Life ka Tamasha by Amandeep Khayal - Delhi.png</t>
+          <t>03_Jazbaa Ft Rekha Bhardwaj Live in Concert.png</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Adult Jokes Only</t>
+          <t>04 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fri 20 Jun 2025</t>
+          <t>Sat 1 Nov 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TOT Studio: Delhi</t>
+          <t>Gymkhana Club: Gurugram</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹249 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Adult Jokes Only.png</t>
+          <t>04_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Urooj Ashfaq's It's Funny To Me</t>
+          <t>05 Cap Mania Tour ft Himesh Reshammiya</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -766,42 +766,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Indira Gandhi Arena: Delhi</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Urooj Ashfaq's It's Funny To Me.png</t>
+          <t>05_Cap Mania Tour ft Himesh Reshammiya.png</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Yoga with Puppies by Pawasana</t>
+          <t>06 Sufi Night ft. Master Saleem Live at Khubani</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>Wed 25 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -828,42 +828,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>5 Hours</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Creative Detox Studio: Delhi</t>
+          <t>Khubani, Andaz: Delhi</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_Yoga with Puppies by Pawasana.png</t>
+          <t>06_Sufi Night ft. Master Saleem Live at Khubani.png</t>
         </is>
       </c>
     </row>
@@ -875,57 +875,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07 World Music Weekend</t>
+          <t>07 Da Vinci Genius - Interactive Immersive Experience</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fri 20 Jun 2025</t>
+          <t>Sat 21 Jun 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12 Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹600 Onwards</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>07_World Music Weekend.png</t>
+          <t>07_Da Vinci Genius - Interactive Immersive Experience.png</t>
         </is>
       </c>
     </row>
@@ -937,57 +937,57 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08 Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+          <t>08 F1 BEYOND THE TRACK Movie Screening + Experience</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>08_Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral.png</t>
+          <t>08_F1 BEYOND THE TRACK Movie Screening + Experience.png</t>
         </is>
       </c>
     </row>
@@ -999,12 +999,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09 Crowd-Work Show by Manhar Seth</t>
+          <t>09 Bismil Ki Mehfil 2025 - Delhi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1014,848 +1014,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>8yrs+</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>KD Jadhav Wrestling Stadium 7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹899 Onwards</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>09_Crowd-Work Show by Manhar Seth.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>#0010</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10 PRACTICE - A Standup Comedy Show by Manik Mahna</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sat 21 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Sun 20 Jul 2025</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7:00 PM</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1 hour 30 minutes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>18yrs+</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Hindi, English</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Mysore Association Auditorium</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>₹799</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Fast Filling</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>10_PRACTICE - A Standup Comedy Show by Manik Mahna.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>#0011</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11 Halki Halki Fati By Vikas Kush Sharma</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Sun 7 Sep 2025</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7:30 PM</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1 hour 30 minutes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>English, Hindi</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Baroda Productivity Council</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Fast Filling</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>11_Halki Halki Fati By Vikas Kush Sharma.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>#0012</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12 Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Thu 26 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9:00PM</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2hours 15 minutes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>83 Hindi</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>₹499</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Fast Filling</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>12_Kisi Ko Batana Mat By Anubhav Singh Bassi.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>#0013</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>13 Speed dating</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sun 22 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Sun 16 Nov 2025</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5:30PM</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1 Hour</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>18yrs+</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>BR English, Hindi</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Garden of Five Senses: Delhi</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>13_Speed dating.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>#0014</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>14 Circus Festival</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Sun 22 Jun 2025</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1 hour 30 minutes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3yrs+</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>English, Hindi</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Auditorium: Ghaziabad</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>₹250 Onwards</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>14_Circus Festival.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>#0015</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>15 Comedy Show Noida Sector 18</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Sun 22 Jun 2025</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1 hour 15 minutes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Highlane Comedy Club: Noida</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>₹299 Onwards</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Fast Filling</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>15_Comedy Show Noida Sector 18.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>#0016</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>16 Pottery Date</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sun 29 Jun 2025</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>30 Minutes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Bengali, English, Hindi, Kannada,</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>@ Conscious Coffee Cravings: Delhi</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>₹799 Onwards</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>16_Pottery Date.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>#0017</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>17 LEGO SUMMER PLAYGROUND</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Sun 22 Jun 2025</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>30 Minutes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>5yrs+</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>© Ambience Mall: Gurgaon</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>₹299</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>17_LEGO SUMMER PLAYGROUND.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>#0018</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>18 Master Peace - Standup Comedy Show By Madhur Virli</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Sun 10 Aug 2025</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1 hour 30 minutes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>18yrs+</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Hindi, English</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Bal Gandharva Rang Mandir: 7</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>₹699 Onwards</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Fast Filling</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>18_Master Peace - Standup Comedy Show By Madhur Virli.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>#0019</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>19 One Night StandUp - Standup comedy</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Sat 12 Jul 2025</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8:00 PM</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1 hour 15 minutes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Laughter Nation Comedy Club</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>₹249 Onwards</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>19_One Night StandUp - Standup comedy.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>#0020</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>20 Best of Stand-up - Stand-up Comedy Show</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Sun 22 Jun 2025</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8:00 PM</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1 hour 15 minutes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Laughter Nation Comedy Club</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>₹299 Onwards</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>20_Best of Stand-up - Stand-up Comedy Show.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>#0021</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>21 Comedy Nights Noida</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Tue 1 Jul 2025</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1 hour 15 minutes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Comedy County: Noida</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>₹299 Onwards</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>21_Comedy Nights Noida.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>#0022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>22 Perfume Making Workshop</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Fri 20 Jun 2025</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Sat 5 Jul 2025</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1 Hour</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Bengali, English, Hindi, Kannada,</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Lower Parel: Mumbai</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>₹799 Onwards</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>22_Perfume Making Workshop.png</t>
+          <t>09_Bismil Ki Mehfil 2025 - Delhi.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,27 +503,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Van Gogh - An Immersive Story</t>
+          <t>01 Bachna Ae Haseeno- Live In Concert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5:30 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>3 hours 30 minutes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>Shri Ram Centre: Delhi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹700 Onwards</t>
+          <t>₹750 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Van Gogh - An Immersive Story.png</t>
+          <t>01_Bachna Ae Haseeno- Live In Concert.png</t>
         </is>
       </c>
     </row>
@@ -565,57 +565,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Passenger India Tour 2025 - New Delhi</t>
+          <t>02 Blind Date</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wed 19 Nov 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Wed 20 Aug 2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7:00PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>@ English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>@ _DLF Cyberhub: Gurugram</t>
+          <t>Lower Parel: Mumbai</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹99</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Passenger India Tour 2025 - New Delhi.png</t>
+          <t>02_Blind Date.png</t>
         </is>
       </c>
     </row>
@@ -627,57 +627,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+          <t>03 Swiftchella - A Taylor Swift-Themed Fan Party</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 13 Jul 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>3 Hours</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Plenary Hall Bharat Mandapam: Delhi</t>
+          <t>Marketcity: Mumbai</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹599 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Jazbaa Ft Rekha Bhardwaj Live in Concert.png</t>
+          <t>03_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+          <t>04 Just Joking - A Stand Up Comedy Line Up</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sat 1 Nov 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -704,42 +704,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Gymkhana Club: Gurugram</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
+          <t>04_Just Joking - A Stand Up Comedy Line Up.png</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Cap Mania Tour ft Himesh Reshammiya</t>
+          <t>05 Telling Lies -A Standup Solo by Aashish Solanki</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Wed 2 Jul 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -766,32 +766,32 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>BR English, Hindi</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Indira Gandhi Arena: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹599</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Cap Mania Tour ft Himesh Reshammiya.png</t>
+          <t>05_Telling Lies -A Standup Solo by Aashish Solanki.png</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Sufi Night ft. Master Saleem Live at Khubani</t>
+          <t>06 R D BURMAN NITE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wed 25 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -828,17 +828,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5 Hours</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -848,22 +848,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Khubani, Andaz: Delhi</t>
+          <t>Road: Delhi</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹300 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_Sufi Night ft. Master Saleem Live at Khubani.png</t>
+          <t>06_R D BURMAN NITE.png</t>
         </is>
       </c>
     </row>
@@ -875,57 +875,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07 Da Vinci Genius - Interactive Immersive Experience</t>
+          <t>07 Room XO Presents Mika Singh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sat 21 Jun 2025</t>
+          <t>Sat 5 Jul 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21yrs+</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>Room Xo: Gurugram</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹600 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>07_Da Vinci Genius - Interactive Immersive Experience.png</t>
+          <t>07_Room XO Presents Mika Singh.png</t>
         </is>
       </c>
     </row>
@@ -937,47 +937,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08 F1 BEYOND THE TRACK Movie Screening + Experience</t>
+          <t>08 DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>5 Hours</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21yrs+</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Room Xo: Gurugram</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹500</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>08_F1 BEYOND THE TRACK Movie Screening + Experience.png</t>
+          <t>08_DJ Chetas - Chandni Bar Meets Bollywood (Gurugram).png</t>
         </is>
       </c>
     </row>
@@ -999,57 +999,863 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09 Bismil Ki Mehfil 2025 - Delhi</t>
+          <t>09 VILEN LIVE - DELHI (NCR)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Fri 4 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3 Hours</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Room Xo: Gurugram</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>09_VILEN LIVE - DELHI (NCR).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>#0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10 Comedy Show Noida Sector 18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sun 13 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Highlane Comedy Club: Noida</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10_Comedy Show Noida Sector 18.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11 Rahgir  Kya Jaipur Kya Dilli Tour</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sat 28 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Sat 12 Jul 2025</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>6:00 PM</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4 Hours</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>12yrs+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Gurunanak Bhavan: Nagpur</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>11_Rahgir  Kya Jaipur Kya Dilli Tour.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>#0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12 Abhangwari By Mahesh Kale - Delhi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fri 11 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6:45 PM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2 hours 30 minutes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5yrs+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Marathi, Hindi</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Bharat Mandapam: Delhi</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>12_Abhangwari By Mahesh Kale - Delhi.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>#0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13 Open Mic - Comedy &amp; Poetry.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sun 3 Aug 2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6:00 PM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>English, Hindi, Punjabi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Buddy On Stage: Delhi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>₹249 Onwards</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>13_Open Mic - Comedy &amp; Poetry..png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>#0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14 Paint with Puppies by Barket</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sun 29 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>BeeYoung Brewgarden: Delhi</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>14_Paint with Puppies by Barket.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>#0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15 PokerBaazi Presents Nizami Brothers IGT Live</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Wed 25 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9:30 PM</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Studio XO Bar, Sector 29: q</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15_PokerBaazi Presents Nizami Brothers IGT Live.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16 A NIGHT OF LAUGHTER FT GAURAV GUPTA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sun 10 Aug 2025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7:30 PM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Plenary Hall Bharat Mandapam</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>₹200 Onwards</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16_A NIGHT OF LAUGHTER FT GAURAV GUPTA.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>#0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17 Barkha Ritu - Delhi</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fri25 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6:30PM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3Hours</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>8yrs+</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>@3_ Hindi, English</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Kamani Auditorium: Delhi</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>₹500 Onwards</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>17_Barkha Ritu - Delhi.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18 Krishnaa - Music, Bliss and Beyond</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sun 17 Aug 2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2Hours</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>@] English, Gujarati, Hindi, Sanskrit,</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>© Jamshed Bhabha Theatre: NCPA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>₹749 Onwards</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18_Krishnaa - Music, Bliss and Beyond.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>#0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19 Girish And The Chronicles (Originals &amp; Covers)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sat 28 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>21yrs+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Hard Rock Cafe: Delhi</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>19_Girish And The Chronicles (Originals &amp; Covers).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>#0020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20 Adult Standup Comedy Show</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9:30PM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>20_Adult Standup Comedy Show.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>#0021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21 Dhyan Sangeet Meditation Program New Delhi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sun 20 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1 hour 45 minutes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Kamani Auditorium: Delhi</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>₹900 Onwards</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>21_Dhyan Sangeet Meditation Program New Delhi.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>#0022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22 PAPON LIVE IN CONCERT - DELHI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sun 21 Dec 2025</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3 Hours</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5yrs+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Hindi</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>KD Jadhav Wrestling Stadium 7</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>₹899 Onwards</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Fast Filling</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>09_Bismil Ki Mehfil 2025 - Delhi.png</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Venue To Be Announced: Delhi</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>₹199 Onwards</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>22_PAPON LIVE IN CONCERT - DELHI.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,12 +503,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Bachna Ae Haseeno- Live In Concert</t>
+          <t>01 Cap Mania Tour ft Himesh Reshammiya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,32 +518,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3 hours 30 minutes</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Shri Ram Centre: Delhi</t>
+          <t>Indira Gandhi Arena: Delhi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹750 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Bachna Ae Haseeno- Live In Concert.png</t>
+          <t>01_Cap Mania Tour ft Himesh Reshammiya.png</t>
         </is>
       </c>
     </row>
@@ -565,57 +565,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Blind Date</t>
+          <t>02 Bismil Ki Mehfil 2025 - Delhi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed 20 Aug 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>8yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Lower Parel: Mumbai</t>
+          <t>K D Jadhav Wrestling Stadium (IGI</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹99</t>
+          <t>₹899 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Blind Date.png</t>
+          <t>02_Bismil Ki Mehfil 2025 - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Swiftchella - A Taylor Swift-Themed Fan Party</t>
+          <t>03 KAL KI CHINTA NHI KARTA FT. RAVI GUPTA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -637,47 +637,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sun 13 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3 Hours</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Marketcity: Mumbai</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹599 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Swiftchella - A Taylor Swift-Themed Fan Party.png</t>
+          <t>03_KAL KI CHINTA NHI KARTA FT. RAVI GUPTA.png</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Just Joking - A Stand Up Comedy Line Up</t>
+          <t>04 Passenger India Tour 2025 - New Delhi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Wed 19 Nov 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -704,42 +704,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>DLF Cyberhub: Gurugram</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹500</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Just Joking - A Stand Up Comedy Line Up.png</t>
+          <t>04_Passenger India Tour 2025 - New Delhi.png</t>
         </is>
       </c>
     </row>
@@ -751,57 +751,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Telling Lies -A Standup Solo by Aashish Solanki</t>
+          <t>05 Rambo Circus - Delhi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wed 2 Jul 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 hour 25 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>BR English, Hindi</t>
+          <t>English, Hindi, Hinglish</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹599</t>
+          <t>₹350 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Telling Lies -A Standup Solo by Aashish Solanki.png</t>
+          <t>05_Rambo Circus - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -813,27 +813,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 R D BURMAN NITE</t>
+          <t>06 Van Gogh - An Immersive Story</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Road: Delhi</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹300 Onwards</t>
+          <t>₹700 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_R D BURMAN NITE.png</t>
+          <t>06_Van Gogh - An Immersive Story.png</t>
         </is>
       </c>
     </row>
@@ -875,47 +875,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07 Room XO Presents Mika Singh</t>
+          <t>07 Gaurav Kapoor Live</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sat 5 Jul 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Wed 25 Jun 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Room Xo: Gurugram</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>07_Room XO Presents Mika Singh.png</t>
+          <t>07_Gaurav Kapoor Live.png</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08 DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
+          <t>08 Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -952,17 +952,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5 Hours</t>
+          <t>2hours 30 minutes</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21yrs+</t>
+          <t>3yrs+</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -972,22 +972,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Room Xo: Gurugram</t>
+          <t>Plenary Hall Bharat Mandapam</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>08_DJ Chetas - Chandni Bar Meets Bollywood (Gurugram).png</t>
+          <t>08_Jazbaa Ft Rekha Bhardwaj Live in Concert.png</t>
         </is>
       </c>
     </row>
@@ -999,32 +999,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09 VILEN LIVE - DELHI (NCR)</t>
+          <t>09 Comedy Nights @Comedy County</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fri 4 Jul 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Thu 3 Jul 2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Room Xo: Gurugram</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>09_VILEN LIVE - DELHI (NCR).png</t>
+          <t>09_Comedy Nights @Comedy County.png</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10 Comedy Show Noida Sector 18</t>
+          <t>10 Da Vinci Genius - Interactive Immersive Experience</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sun 13 Jul 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1081,27 +1081,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Highlane Comedy Club: Noida</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹600 Onwards</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10_Comedy Show Noida Sector 18.png</t>
+          <t>10_Da Vinci Genius - Interactive Immersive Experience.png</t>
         </is>
       </c>
     </row>
@@ -1123,32 +1123,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11 Rahgir  Kya Jaipur Kya Dilli Tour</t>
+          <t>11 PS - I Love You By Pranav Sharma</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1158,22 +1158,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Gurunanak Bhavan: Nagpur</t>
+          <t>Mysore Association Auditorium</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11_Rahgir  Kya Jaipur Kya Dilli Tour.png</t>
+          <t>11_PS - I Love You By Pranav Sharma.png</t>
         </is>
       </c>
     </row>
@@ -1185,42 +1185,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12 Abhangwari By Mahesh Kale - Delhi</t>
+          <t>12 Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri 11 Jul 2025</t>
+          <t>Sun 22 Jun 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 1 Aug 2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6:45 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 hour 40 minutes</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Marathi, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Bharat Mandapam: Delhi</t>
+          <t>Sangeetha: Mumbai</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12_Abhangwari By Mahesh Kale - Delhi.png</t>
+          <t>12_Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral.png</t>
         </is>
       </c>
     </row>
@@ -1247,27 +1247,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13 Open Mic - Comedy &amp; Poetry.</t>
+          <t>13 Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Sat 2 Aug 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sun 3 Aug 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1277,17 +1277,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>English, Hindi, Punjabi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Buddy On Stage: Delhi</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>₹249 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13_Open Mic - Comedy &amp; Poetry..png</t>
+          <t>13_Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -1309,47 +1309,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14 Paint with Puppies by Barket</t>
+          <t>14 Daily Ka Kaam Hai By Aakash Gupta</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sat 19 Jul 2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>9:45 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BeeYoung Brewgarden: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>14_Paint with Puppies by Barket.png</t>
+          <t>14_Daily Ka Kaam Hai By Aakash Gupta.png</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15 PokerBaazi Presents Nizami Brothers IGT Live</t>
+          <t>15 Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wed 25 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9:30 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Studio XO Bar, Sector 29: q</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>15_PokerBaazi Presents Nizami Brothers IGT Live.png</t>
+          <t>15_Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral.png</t>
         </is>
       </c>
     </row>
@@ -1433,22 +1433,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16 A NIGHT OF LAUGHTER FT GAURAV GUPTA</t>
+          <t>16 Master Peace - Standup Comedy Show By Madhur Virli</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Sun 22 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Sun 10 Aug 2025</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1463,27 +1463,27 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Plenary Hall Bharat Mandapam</t>
+          <t>Bal Gandharva Rang Mandir: 7</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>₹200 Onwards</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>16_A NIGHT OF LAUGHTER FT GAURAV GUPTA.png</t>
+          <t>16_Master Peace - Standup Comedy Show By Madhur Virli.png</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17 Barkha Ritu - Delhi</t>
+          <t>17 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fri25 Jul 2025</t>
+          <t>Sat 1 Nov 2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1510,42 +1510,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6:30PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3Hours</t>
+          <t>2 hours 30 minutes.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>@3_ Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Kamani Auditorium: Delhi</t>
+          <t>Gymkhana Club: Gurugram</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>₹500 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>17_Barkha Ritu - Delhi.png</t>
+          <t>17_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
         </is>
       </c>
     </row>
@@ -1557,47 +1557,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18 Krishnaa - Music, Bliss and Beyond</t>
+          <t>18 Crowd-Work Show by Manhar Seth</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sun 17 Aug 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8:30 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2Hours</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>@] English, Gujarati, Hindi, Sanskrit,</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>© Jamshed Bhabha Theatre: NCPA</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>₹749 Onwards</t>
+          <t>₹499</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>18_Krishnaa - Music, Bliss and Beyond.png</t>
+          <t>18_Crowd-Work Show by Manhar Seth.png</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19 Girish And The Chronicles (Originals &amp; Covers)</t>
+          <t>19 KidZania Delhi NCR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Mon 23 Jun 2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1634,42 +1634,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>10 Hours:</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Hard Rock Cafe: Delhi</t>
+          <t>KidZania: Noida</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹531 Onwards</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>19_Girish And The Chronicles (Originals &amp; Covers).png</t>
+          <t>19_KidZania Delhi NCR.png</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20 Adult Standup Comedy Show</t>
+          <t>20 PRACTICE - A Standup Comedy Show by Manik Mahna</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9:30PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1706,156 +1706,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mysore Association Auditorium</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹799</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>20_Adult Standup Comedy Show.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>#0021</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>21 Dhyan Sangeet Meditation Program New Delhi</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sun 20 Jul 2025</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1 hour 45 minutes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>16yrs+</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>English, Hindi</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Kamani Auditorium: Delhi</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>₹900 Onwards</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Fast Filling</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>21_Dhyan Sangeet Meditation Program New Delhi.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>#0022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>22 PAPON LIVE IN CONCERT - DELHI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sun 21 Dec 2025</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>7:00 PM</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3 Hours</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>5yrs+</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Venue To Be Announced: Delhi</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>₹199 Onwards</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>22_PAPON LIVE IN CONCERT - DELHI.png</t>
+          <t>20_PRACTICE - A Standup Comedy Show by Manik Mahna.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -503,57 +503,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Cap Mania Tour ft Himesh Reshammiya</t>
+          <t>01 Van Gogh - An Immersive Story</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Indira Gandhi Arena: Delhi</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹700 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Cap Mania Tour ft Himesh Reshammiya.png</t>
+          <t>01_Van Gogh - An Immersive Story.png</t>
         </is>
       </c>
     </row>
@@ -565,57 +565,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 Bismil Ki Mehfil 2025 - Delhi</t>
+          <t>02 So Mini Things with Shraddha Jain- One Last Time</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 9 Aug 2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8yrs+</t>
+          <t>6yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>K D Jadhav Wrestling Stadium (IGI</t>
+          <t>‘Shanmukhananda Hall: Mumbai</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹899 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_Bismil Ki Mehfil 2025 - Delhi.png</t>
+          <t>02_So Mini Things with Shraddha Jain- One Last Time.png</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 KAL KI CHINTA NHI KARTA FT. RAVI GUPTA</t>
+          <t>03 Cap Mania Tour ft Himesh Reshammiya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -642,32 +642,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Indira Gandhi Arena: Delhi</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_KAL KI CHINTA NHI KARTA FT. RAVI GUPTA.png</t>
+          <t>03_Cap Mania Tour ft Himesh Reshammiya.png</t>
         </is>
       </c>
     </row>
@@ -704,12 +704,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>7:00PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>2Hours</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>@ English</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>DLF Cyberhub: Gurugram</t>
+          <t>@ _DLF Cyberhub: Gurugram 7</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -813,22 +813,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Van Gogh - An Immersive Story</t>
+          <t>06 Gaurav Kapoor Live</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Wed 25 Jun 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -838,22 +838,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹700 Onwards</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_Van Gogh - An Immersive Story.png</t>
+          <t>06_Gaurav Kapoor Live.png</t>
         </is>
       </c>
     </row>
@@ -875,17 +875,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07 Gaurav Kapoor Live</t>
+          <t>07 Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 24 Jun 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 25 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -895,27 +895,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>3yrs+</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Plenary Hall Bharat Mandapam</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>07_Gaurav Kapoor Live.png</t>
+          <t>07_Jazbaa Ft Rekha Bhardwaj Live in Concert.png</t>
         </is>
       </c>
     </row>
@@ -937,32 +937,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08 Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+          <t>08 Comedy Nights @Comedy County</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Mon 23 Jun 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Thu 3 Jul 2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2hours 30 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Plenary Hall Bharat Mandapam</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>08_Jazbaa Ft Rekha Bhardwaj Live in Concert.png</t>
+          <t>08_Comedy Nights @Comedy County.png</t>
         </is>
       </c>
     </row>
@@ -999,17 +999,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09 Comedy Nights @Comedy County</t>
+          <t>09 Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Thu 26 Jun 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu 3 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 hours 15 minutes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>09_Comedy Nights @Comedy County.png</t>
+          <t>09_Kisi Ko Batana Mat By Anubhav Singh Bassi.png</t>
         </is>
       </c>
     </row>
@@ -1061,47 +1061,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10 Da Vinci Genius - Interactive Immersive Experience</t>
+          <t>10 Daily Ka Kaam Hai By Aakash Gupta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9:45 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>₹600 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10_Da Vinci Genius - Interactive Immersive Experience.png</t>
+          <t>10_Daily Ka Kaam Hai By Aakash Gupta.png</t>
         </is>
       </c>
     </row>
@@ -1123,27 +1123,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11 PS - I Love You By Pranav Sharma</t>
+          <t>11 Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Mon 23 Jun 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Fri 1 Aug 2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>9:30 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 hour 40 minutes</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1158,22 +1158,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Mysore Association Auditorium</t>
+          <t>‘Sangeetha: Mumbai</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11_PS - I Love You By Pranav Sharma.png</t>
+          <t>11_Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral.png</t>
         </is>
       </c>
     </row>
@@ -1185,57 +1185,57 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12 Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral</t>
+          <t>12 Bismil Ki Mehfil 2025 - Delhi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fri 1 Aug 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1 hour 40 minutes</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>8yrs+</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Sangeetha: Mumbai</t>
+          <t>KD Jadhav Wrestling Stadium 7</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹899 Onwards</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12_Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral.png</t>
+          <t>12_Bismil Ki Mehfil 2025 - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -1247,17 +1247,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13 Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
+          <t>13 Da Vinci Genius - Interactive Immersive Experience</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 2 Aug 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1267,27 +1267,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹600 Onwards</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13_Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi.png</t>
+          <t>13_Da Vinci Genius - Interactive Immersive Experience.png</t>
         </is>
       </c>
     </row>
@@ -1309,47 +1309,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14 Daily Ka Kaam Hai By Aakash Gupta</t>
+          <t>14 DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sat 19 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9:45 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>5 Hours</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>21yrs+</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Room Xo: Gurugram</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹500</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>14_Daily Ka Kaam Hai By Aakash Gupta.png</t>
+          <t>14_DJ Chetas - Chandni Bar Meets Bollywood (Gurugram).png</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1371,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15 Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+          <t>15 Master Peace - Standup Comedy Show By Madhur Virli</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 10 Aug 2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Bal Gandharva Rang Mandir: 7</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>15_Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral.png</t>
+          <t>15_Master Peace - Standup Comedy Show By Madhur Virli.png</t>
         </is>
       </c>
     </row>
@@ -1433,57 +1433,57 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16 Master Peace - Standup Comedy Show By Madhur Virli</t>
+          <t>16 Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Sat 2 Aug 2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sun 10 Aug 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Bal Gandharva Rang Mandir: 7</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>16_Master Peace - Standup Comedy Show By Madhur Virli.png</t>
+          <t>16_Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+          <t>17 Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sat 1 Nov 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1515,37 +1515,37 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes.</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Gymkhana Club: Gurugram</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>17_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
+          <t>17_Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral.png</t>
         </is>
       </c>
     </row>
@@ -1557,12 +1557,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18 Crowd-Work Show by Manhar Seth</t>
+          <t>18 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Sat 1 Nov 2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1572,42 +1572,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8:30 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Gymkhana Club: Gurugram</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>18_Crowd-Work Show by Manhar Seth.png</t>
+          <t>18_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
         </is>
       </c>
     </row>
@@ -1619,57 +1619,57 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19 KidZania Delhi NCR</t>
+          <t>19 PS - I Love You By Pranav Sharma</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon 23 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>3:30 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10 Hours:</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>KidZania: Noida</t>
+          <t>Mysore Association Auditorium</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>₹531 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>19_KidZania Delhi NCR.png</t>
+          <t>19_PS - I Love You By Pranav Sharma.png</t>
         </is>
       </c>
     </row>
@@ -1681,57 +1681,57 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20 PRACTICE - A Standup Comedy Show by Manik Mahna</t>
+          <t>20 KidZania Delhi NCR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sun 22 Jun 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>10 Hours</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Mysore Association Auditorium</t>
+          <t>KidZania: Noida</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>₹799</t>
+          <t>₹531 Onwards</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>20_PRACTICE - A Standup Comedy Show by Manik Mahna.png</t>
+          <t>20_KidZania Delhi NCR.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -503,57 +503,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01 Van Gogh - An Immersive Story</t>
+          <t xml:space="preserve"> Bismil Ki Mehfil 2025 - Delhi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue 24 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>KD Jadhav Wrestling Stadium</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹700 Onwards</t>
+          <t>₹899 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01_Van Gogh - An Immersive Story.png</t>
+          <t>12_Bismil Ki Mehfil 2025 - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -565,57 +565,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 So Mini Things with Shraddha Jain- One Last Time</t>
+          <t xml:space="preserve"> Cap Mania Tour ft Himesh Reshammiya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sat 9 Aug 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>‘Shanmukhananda Hall: Mumbai</t>
+          <t>Indira Gandhi Arena: Delhi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02_So Mini Things with Shraddha Jain- One Last Time.png</t>
+          <t>03_Cap Mania Tour ft Himesh Reshammiya.png</t>
         </is>
       </c>
     </row>
@@ -627,47 +627,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03 Cap Mania Tour ft Himesh Reshammiya</t>
+          <t xml:space="preserve"> Comedy Nights @Comedy County</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Mon 23 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Thu 3 Jul 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Indira Gandhi Arena: Delhi</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>03_Cap Mania Tour ft Himesh Reshammiya.png</t>
+          <t>08_Comedy Nights @Comedy County.png</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04 Passenger India Tour 2025 - New Delhi</t>
+          <t xml:space="preserve"> Da Vinci Genius - Interactive Immersive Experience</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wed 19 Nov 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7:00PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>@ English</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>@ _DLF Cyberhub: Gurugram 7</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹600 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04_Passenger India Tour 2025 - New Delhi.png</t>
+          <t>13_Da Vinci Genius - Interactive Immersive Experience.png</t>
         </is>
       </c>
     </row>
@@ -751,47 +751,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05 Rambo Circus - Delhi</t>
+          <t xml:space="preserve"> Daily Ka Kaam Hai By Aakash Gupta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9:45 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 25 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>English, Hindi, Hinglish</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹350 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>05_Rambo Circus - Delhi.png</t>
+          <t>10_Daily Ka Kaam Hai By Aakash Gupta.png</t>
         </is>
       </c>
     </row>
@@ -813,47 +813,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06 Gaurav Kapoor Live</t>
+          <t xml:space="preserve"> DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 24 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 25 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>5 Hours</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>21yrs+</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Room Xo: Gurugram</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹999</t>
+          <t>₹500</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>06_Gaurav Kapoor Live.png</t>
+          <t>14_DJ Chetas - Chandni Bar Meets Bollywood (Gurugram).png</t>
         </is>
       </c>
     </row>
@@ -875,17 +875,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07 Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+          <t xml:space="preserve"> Gaurav Kapoor Live</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Wed 25 Jun 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -895,37 +895,37 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Plenary Hall Bharat Mandapam</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>07_Jazbaa Ft Rekha Bhardwaj Live in Concert.png</t>
+          <t>06_Gaurav Kapoor Live.png</t>
         </is>
       </c>
     </row>
@@ -937,32 +937,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08 Comedy Nights @Comedy County</t>
+          <t xml:space="preserve"> Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 23 Jun 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu 3 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>3yrs+</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>Plenary Hall Bharat Mandapam</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>08_Comedy Nights @Comedy County.png</t>
+          <t>07_Jazbaa Ft Rekha Bhardwaj Live in Concert.png</t>
         </is>
       </c>
     </row>
@@ -999,27 +999,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09 Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
+          <t xml:space="preserve"> Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thu 26 Jun 2025</t>
+          <t>Mon 23 Jun 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 1 Aug 2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9:30 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2 hours 15 minutes</t>
+          <t>1 hour 40 minutes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1029,27 +1029,27 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Sangeetha: Mumbai</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹999</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>09_Kisi Ko Batana Mat By Anubhav Singh Bassi.png</t>
+          <t>11_Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral.png</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10 Daily Ka Kaam Hai By Aakash Gupta</t>
+          <t xml:space="preserve"> Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9:45 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10_Daily Ka Kaam Hai By Aakash Gupta.png</t>
+          <t>17_Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral.png</t>
         </is>
       </c>
     </row>
@@ -1123,47 +1123,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11 Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral</t>
+          <t xml:space="preserve"> KidZania Delhi NCR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon 23 Jun 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fri 1 Aug 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1 hour 40 minutes</t>
+          <t>10 Hours</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>‘Sangeetha: Mumbai</t>
+          <t>KidZania: Noida</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹531 Onwards</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11_Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral.png</t>
+          <t>20_KidZania Delhi NCR.png</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12 Bismil Ki Mehfil 2025 - Delhi</t>
+          <t xml:space="preserve"> Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Thu 26 Jun 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>2 hours 15 minutes</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>KD Jadhav Wrestling Stadium 7</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>₹899 Onwards</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12_Bismil Ki Mehfil 2025 - Delhi.png</t>
+          <t>09_Kisi Ko Batana Mat By Anubhav Singh Bassi.png</t>
         </is>
       </c>
     </row>
@@ -1247,17 +1247,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13 Da Vinci Genius - Interactive Immersive Experience</t>
+          <t xml:space="preserve"> Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tue 24 Jun 2025</t>
+          <t>Sat 2 Aug 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1267,27 +1267,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>₹600 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13_Da Vinci Genius - Interactive Immersive Experience.png</t>
+          <t>16_Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -1309,57 +1309,57 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14 DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
+          <t xml:space="preserve"> Master Peace - Standup Comedy Show By Madhur Virli</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 10 Aug 2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Room Xo: Gurugram</t>
+          <t>Bal Gandharva Rang Mandir: 7</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>14_DJ Chetas - Chandni Bar Meets Bollywood (Gurugram).png</t>
+          <t>15_Master Peace - Standup Comedy Show By Madhur Virli.png</t>
         </is>
       </c>
     </row>
@@ -1371,47 +1371,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15 Master Peace - Standup Comedy Show By Madhur Virli</t>
+          <t xml:space="preserve"> Passenger India Tour 2025 - New Delhi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Wed 19 Nov 2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sun 10 Aug 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>7:00PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2Hours</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Bal Gandharva Rang Mandir: 7</t>
+          <t>@ DLF Cyberhub: Gurugram 7</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹500</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>15_Master Peace - Standup Comedy Show By Madhur Virli.png</t>
+          <t>04_Passenger India Tour 2025 - New Delhi.png</t>
         </is>
       </c>
     </row>
@@ -1433,27 +1433,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16 Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
+          <t xml:space="preserve"> PS - I Love You By Pranav Sharma</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sat 2 Aug 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3:30 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1463,27 +1463,27 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Mysore Association Auditorium</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>16_Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi.png</t>
+          <t>19_PS - I Love You By Pranav Sharma.png</t>
         </is>
       </c>
     </row>
@@ -1495,47 +1495,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17 Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+          <t xml:space="preserve"> Rambo Circus - Delhi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 hour 25 minutes</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi, Hinglish</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>₹999</t>
+          <t>₹350 Onwards</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>17_Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral.png</t>
+          <t>05_Rambo Circus - Delhi.png</t>
         </is>
       </c>
     </row>
@@ -1557,57 +1557,57 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18 SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+          <t xml:space="preserve"> So Mini Things with Shraddha Jain- One Last Time</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sat 1 Nov 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 9 Aug 2025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>6yrs+</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Gymkhana Club: Gurugram</t>
+          <t>‘Shanmukhananda Hall: Mumbai</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>18_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
+          <t>02_So Mini Things with Shraddha Jain- One Last Time.png</t>
         </is>
       </c>
     </row>
@@ -1619,47 +1619,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19 PS - I Love You By Pranav Sharma</t>
+          <t xml:space="preserve"> SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Sat 1 Nov 2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3:30 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mysore Association Auditorium</t>
+          <t>Gymkhana Club: Gurugram</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>19_PS - I Love You By Pranav Sharma.png</t>
+          <t>18_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20 KidZania Delhi NCR</t>
+          <t xml:space="preserve"> Van Gogh - An Immersive Story</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1691,17 +1691,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10 Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>KidZania: Noida</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>₹531 Onwards</t>
+          <t>₹700 Onwards</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>20_KidZania Delhi NCR.png</t>
+          <t>01_Van Gogh - An Immersive Story.png</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bismil Ki Mehfil 2025 - Delhi</t>
+          <t>Bismil Ki Mehfil 2025 - Delhi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cap Mania Tour ft Himesh Reshammiya</t>
+          <t>Cap Mania Tour ft Himesh Reshammiya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comedy Nights @Comedy County</t>
+          <t>Comedy Nights @Comedy County</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Da Vinci Genius - Interactive Immersive Experience</t>
+          <t>Da Vinci Genius - Interactive Immersive Experience</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daily Ka Kaam Hai By Aakash Gupta</t>
+          <t>Daily Ka Kaam Hai By Aakash Gupta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
+          <t>DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gaurav Kapoor Live</t>
+          <t>Gaurav Kapoor Live</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+          <t>Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral</t>
+          <t>Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+          <t>Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KidZania Delhi NCR</t>
+          <t>KidZania Delhi NCR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
+          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
+          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Master Peace - Standup Comedy Show By Madhur Virli</t>
+          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Passenger India Tour 2025 - New Delhi</t>
+          <t>Passenger India Tour 2025 - New Delhi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PS - I Love You By Pranav Sharma</t>
+          <t>PS - I Love You By Pranav Sharma</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rambo Circus - Delhi</t>
+          <t>Rambo Circus - Delhi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So Mini Things with Shraddha Jain- One Last Time</t>
+          <t>So Mini Things with Shraddha Jain- One Last Time</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+          <t>SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Van Gogh - An Immersive Story</t>
+          <t>Van Gogh - An Immersive Story</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>source_image</t>
+          <t>date_added</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>time_added</t>
         </is>
       </c>
     </row>
@@ -553,7 +558,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>12_Bismil Ki Mehfil 2025 - Delhi.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>17:38:29</t>
         </is>
       </c>
     </row>
@@ -615,7 +625,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>03_Cap Mania Tour ft Himesh Reshammiya.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>17:38:26</t>
         </is>
       </c>
     </row>
@@ -677,7 +692,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>08_Comedy Nights @Comedy County.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>17:38:27</t>
         </is>
       </c>
     </row>
@@ -739,7 +759,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>13_Da Vinci Genius - Interactive Immersive Experience.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>17:38:29</t>
         </is>
       </c>
     </row>
@@ -801,7 +826,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10_Daily Ka Kaam Hai By Aakash Gupta.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>17:38:28</t>
         </is>
       </c>
     </row>
@@ -863,7 +893,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>14_DJ Chetas - Chandni Bar Meets Bollywood (Gurugram).png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>17:38:29</t>
         </is>
       </c>
     </row>
@@ -925,7 +960,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>06_Gaurav Kapoor Live.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>17:38:27</t>
         </is>
       </c>
     </row>
@@ -987,7 +1027,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>07_Jazbaa Ft Rekha Bhardwaj Live in Concert.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>17:38:27</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1094,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>11_Jo Bolta Hai Wahi Hota Hai feat Harsh Gujral.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>17:38:28</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1161,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>17_Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>17:38:30</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1228,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>20_KidZania Delhi NCR.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>17:38:31</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1295,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>09_Kisi Ko Batana Mat By Anubhav Singh Bassi.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>17:38:28</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1362,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>16_Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>17:38:30</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1429,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>15_Master Peace - Standup Comedy Show By Madhur Virli.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>17:38:29</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1496,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>04_Passenger India Tour 2025 - New Delhi.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>17:38:26</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1563,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>19_PS - I Love You By Pranav Sharma.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>17:38:31</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1630,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>05_Rambo Circus - Delhi.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>17:38:27</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1697,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>02_So Mini Things with Shraddha Jain- One Last Time.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>17:38:26</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1764,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>18_SONU NIGAM LIVE IN CONCERT GURUGRAM.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>17:38:30</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1831,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>01_Van Gogh - An Immersive Story.png</t>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>17:38:25</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>KD Jadhav Wrestling Stadium 7</t>
+          <t>K D Jadhav Wrestling Stadium (IGI</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>08:37:21</t>
+          <t>17:12:34</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>08:37:22</t>
+          <t>17:12:30</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9:00PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BB Hindi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>08:37:24</t>
+          <t>17:12:31</t>
         </is>
       </c>
     </row>
@@ -709,52 +709,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Passenger India Tour 2025 - New Delhi</t>
+          <t>Da Vinci Genius - Interactive Immersive Experience</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wed 19 Nov 2025</t>
+          <t>Tue 24 Jun 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7:00PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>@ English</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>@ _DLF Cyberhub: Gurugram 7</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹600 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>08:37:21</t>
+          <t>17:12:33</t>
         </is>
       </c>
     </row>
@@ -776,52 +776,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rambo Circus - Delhi</t>
+          <t>Daily Ka Kaam Hai By Aakash Gupta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9:45 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 25 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>English, Hindi, Hinglish</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹350 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>08:37:22</t>
+          <t>17:12:33</t>
         </is>
       </c>
     </row>
@@ -843,62 +843,1000 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sat 12 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5 Hours</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>21yrs+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Room Xo: Gurugram</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>₹500</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>17:12:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>#0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gaurav Kapoor Live</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tue 24 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed 25 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>17:12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>#0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Halki Halki Fati By Vikas Kush Sharma</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sat 28 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sun 7 Sep 2025</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4:30 PM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Baroda Productivity Council: 7</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>17:12:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>#0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sun 27 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2hours 30 minutes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3yrs+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Plenary Hall Bharat Mandapam: Delhi</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>17:12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>#0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 30 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>17:12:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KidZania Delhi NCR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Wed 25 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10 Hours:</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>KidZania: Noida</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>₹531 Onwards</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>17:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>#0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thu 26 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2hours 15 minutes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>17:12:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>#0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sat 2 Aug 2025</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Talkatora Stadium: Delhi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>17:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>#0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fri 27 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sun 5 Oct 2025</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Bal Gandharva Rang Mandir: 7</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>₹699 Onwards</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>17:12:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>#0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Passenger India Tour 2025 - New Delhi</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Wed 19 Nov 2025</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5yrs+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DLF Cyberhub: Gurugram</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>₹500</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>17:12:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PS - I Love You By Pranav Sharma</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sat 28 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sun 27 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3:30 PM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Mysore Association Auditorium: Mumbai</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>17:12:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>#0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rambo Circus - Delhi</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fri 27 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sun 29 Jun 2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1 hour 25 minutes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>English, Hindi, Hinglish</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Talkatora Stadium: Delhi</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>₹350 Onwards</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>17:12:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>So Mini Things with Shraddha Jain- One Last Time</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sat 28 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sat 9 Aug 2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>6yrs+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>‘Shanmukhananda Hall: Mumbai</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>17:12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>#0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sat 1 Nov 2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2 hours 30 minutes.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5yrs+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Gymkhana Club: Gurugram</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>17:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>#0020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Van Gogh - An Immersive Story</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Tue 24 Jun 2025</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Sun 29 Jun 2025</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>1 Hour</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>₹700 Onwards</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2025-06-24</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>08:37:23</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>17:12:29</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>K D Jadhav Wrestling Stadium (IGI</t>
+          <t>KD Jadhav Wrestling Stadium 7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:12:34</t>
+          <t>08:40:52</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17:12:30</t>
+          <t>08:40:47</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 24 Jun 2025</t>
+          <t>Wed 25 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>17:12:31</t>
+          <t>08:40:50</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tue 24 Jun 2025</t>
+          <t>Thu 26 Jun 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>17:12:33</t>
+          <t>08:40:54</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>17:12:33</t>
+          <t>08:40:50</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>17:12:34</t>
+          <t>08:40:55</t>
         </is>
       </c>
     </row>
@@ -915,17 +915,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 24 Jun 2025</t>
+          <t>Wed 25 Jun 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 25 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>9:45 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹499</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>17:12:32</t>
+          <t>08:40:49</t>
         </is>
       </c>
     </row>
@@ -977,62 +977,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Halki Halki Fati By Vikas Kush Sharma</t>
+          <t>Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sun 7 Sep 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4:30 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Baroda Productivity Council: 7</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>17:12:36</t>
+          <t>08:40:50</t>
         </is>
       </c>
     </row>
@@ -1044,12 +1044,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+          <t>Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1064,22 +1064,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2hours 30 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Plenary Hall Bharat Mandapam: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>17:12:32</t>
+          <t>08:40:53</t>
         </is>
       </c>
     </row>
@@ -1111,62 +1111,62 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+          <t>KidZania Delhi NCR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Thu 26 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Mon 30 Jun 2025</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>10 Hours</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>KidZania: Noida</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹531 Onwards</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>17:12:34</t>
+          <t>08:40:56</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KidZania Delhi NCR</t>
+          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wed 25 Jun 2025</t>
+          <t>Thu 26 Jun 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1193,47 +1193,47 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10 Hours:</t>
+          <t>2 hours 15 minutes</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>KidZania: Noida</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>₹531 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>17:12:35</t>
+          <t>08:40:51</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
+          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thu 26 Jun 2025</t>
+          <t>Sat 2 Aug 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2hours 15 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>17:12:33</t>
+          <t>08:40:53</t>
         </is>
       </c>
     </row>
@@ -1312,62 +1312,62 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
+          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 2 Aug 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 5 Oct 2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Y.B. Chavan Auditorium: Mumbai</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>17:12:35</t>
+          <t>08:40:52</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
+          <t>Passenger India Tour 2025 - New Delhi</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Wed 19 Nov 2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sun 5 Oct 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>7:00PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2Hours</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>@ English</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bal Gandharva Rang Mandir: 7</t>
+          <t>@ _DLF Cyberhub: Gurugram 7</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>₹699 Onwards</t>
+          <t>₹500</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>17:12:33</t>
+          <t>08:40:48</t>
         </is>
       </c>
     </row>
@@ -1446,47 +1446,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Passenger India Tour 2025 - New Delhi</t>
+          <t>PRACTICE - A Standup Comedy Show by Manik Mahna</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wed 19 Nov 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>9:30 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>DLF Cyberhub: Gurugram</t>
+          <t>Mysore Association Auditorium</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹799</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17:12:31</t>
+          <t>08:40:56</t>
         </is>
       </c>
     </row>
@@ -1513,62 +1513,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PS - I Love You By Pranav Sharma</t>
+          <t>Rambo Circus - Delhi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3:30 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 hour 25 minutes</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi, Hinglish</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Mysore Association Auditorium: Mumbai</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹350 Onwards</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>17:12:36</t>
+          <t>08:40:47</t>
         </is>
       </c>
     </row>
@@ -1580,62 +1580,62 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rambo Circus - Delhi</t>
+          <t>Room XO Presents Mika Singh</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 5 Jul 2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1 hour 25 minutes</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21yrs+</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>English, Hindi, Hinglish</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Room Xo: Gurugram</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>₹350 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>17:12:31</t>
+          <t>08:40:46</t>
         </is>
       </c>
     </row>
@@ -1687,22 +1687,22 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>17:12:30</t>
+          <t>08:40:46</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes.</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>17:12:35</t>
+          <t>08:40:54</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tue 24 Jun 2025</t>
+          <t>Thu 26 Jun 2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>17:12:29</t>
+          <t>08:40:48</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bismil Ki Mehfil 2025 - Delhi</t>
+          <t>Anand Utsav</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sun 13 Jul 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,47 +523,47 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>KD Jadhav Wrestling Stadium 7</t>
+          <t>@ Shri Ram Centre: Delhi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹899 Onwards</t>
+          <t>₹250</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>08:40:52</t>
+          <t>16:38:45</t>
         </is>
       </c>
     </row>
@@ -575,47 +575,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cap Mania Tour ft Himesh Reshammiya</t>
+          <t>Circus Festival</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>3yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Indira Gandhi Arena: Delhi</t>
+          <t>Auditorium: Ghaziabad</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹250 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -625,12 +625,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>08:40:47</t>
+          <t>16:38:44</t>
         </is>
       </c>
     </row>
@@ -642,47 +642,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comedy Nights @Comedy County</t>
+          <t>Delhi Open Mic - Poetry &amp; Storytelling</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wed 25 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thu 3 Jul 2025</t>
+          <t>Sun 6 Jul 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 hours 30 minutes.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English, Urdu</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>Unheard Diaries: Delhi</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹149</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -692,12 +692,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>08:40:50</t>
+          <t>16:38:46</t>
         </is>
       </c>
     </row>
@@ -709,27 +709,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Da Vinci Genius - Interactive Immersive Experience</t>
+          <t>Ghar - An Open Mic For Words By Tape A Tale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thu 26 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -739,32 +739,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>English, Hindi, Hinglish</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>Mukti Manch: Mumbai</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹600 Onwards</t>
+          <t>₹300</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>08:40:54</t>
+          <t>16:38:45</t>
         </is>
       </c>
     </row>
@@ -776,62 +776,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Daily Ka Kaam Hai By Aakash Gupta</t>
+          <t>Indian Classical Live Dance and Music</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Thu 31 Jul 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9:45 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹500 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>08:40:50</t>
+          <t>16:38:46</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
+          <t>Life ka Tamasha by Amandeep Khayal - Delhi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sun 6 Jul 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -858,47 +858,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21yrs+</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Room Xo: Gurugram</t>
+          <t>@ Aiwan-E-Ghalib Auditorium: Delhi</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹799</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>08:40:55</t>
+          <t>16:38:44</t>
         </is>
       </c>
     </row>
@@ -910,22 +910,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gaurav Kapoor Live</t>
+          <t>Naram lehja by Kanha Kamboj</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wed 25 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Thu 14 Aug 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9:45 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -935,37 +935,37 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The Mental Talkies: Mumbai</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>08:40:49</t>
+          <t>16:38:46</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+          <t>Open Mic Delhi - Comedy, Poetry &amp; Storytelling!!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 19 Jul 2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2 hours 30 minutes.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1007,32 +1007,32 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English, Urdu</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Unmukt studio: Delhi</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹149 Onwards</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>08:40:50</t>
+          <t>16:38:48</t>
         </is>
       </c>
     </row>
@@ -1044,12 +1044,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+          <t>Passenger India Tour 2025 - New Delhi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Wed 19 Nov 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1064,27 +1064,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>DLF Cyberhub: Gurugram</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹500</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>08:40:53</t>
+          <t>16:38:43</t>
         </is>
       </c>
     </row>
@@ -1111,27 +1111,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KidZania Delhi NCR</t>
+          <t>Poetry &amp; Storytelling Open Mic - Unheard Diaries</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thu 26 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10 Hours</t>
+          <t>2 hours 30 minutes.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English, Urdu</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>KidZania: Noida</t>
+          <t>Unmukt studio: Delhi</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>₹531 Onwards</t>
+          <t>₹149 Onwards</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>08:40:56</t>
+          <t>16:38:48</t>
         </is>
       </c>
     </row>
@@ -1178,27 +1178,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi</t>
+          <t>Poetry Storytelling &amp; Chai Hosted by Ravie Solanky</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thu 26 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2 hours 15 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1208,32 +1208,32 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, Urdu</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>The Social House: Delhi</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹199 Onwards</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>08:40:51</t>
+          <t>16:38:47</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
+          <t>Priya Malik's Ishq Hai</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1255,17 +1255,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 9 Nov 2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1275,17 +1275,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Venue To Be Announced: Mumbai</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>08:40:53</t>
+          <t>16:38:45</t>
         </is>
       </c>
     </row>
@@ -1312,32 +1312,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
+          <t>Rahgir  Kya Jaipur Kya Dilli Tour</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sun 5 Oct 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Y.B. Chavan Auditorium: Mumbai</t>
+          <t>Gurunanak Bhavan: Nagpur</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>08:40:52</t>
+          <t>16:38:43</t>
         </is>
       </c>
     </row>
@@ -1379,62 +1379,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Passenger India Tour 2025 - New Delhi</t>
+          <t>Rambo Circus - Delhi</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wed 19 Nov 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7:00PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2Hours</t>
+          <t>1 hour 25 minutes</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>@ English</t>
+          <t>English, Hindi, Hinglish</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>@ _DLF Cyberhub: Gurugram 7</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹350 Onwards</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>08:40:48</t>
+          <t>16:38:43</t>
         </is>
       </c>
     </row>
@@ -1446,47 +1446,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PRACTICE - A Standup Comedy Show by Manik Mahna</t>
+          <t>Sahas by Amrita Saluja</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 26 Jul 2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Sun 24 Aug 2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 hour 10 minutes</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>10yrs+</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi, English, Hindustani</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Mysore Association Auditorium</t>
+          <t>Mishty Studio: Ahmedabad</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>₹799</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>08:40:56</t>
+          <t>16:38:47</t>
         </is>
       </c>
     </row>
@@ -1513,47 +1513,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rambo Circus - Delhi</t>
+          <t>Saturday Open Mic - Unmukt Delhi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sat 2 Aug 2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1 hour 25 minutes</t>
+          <t>2hours 30 minutes</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>English, Hindi, Hinglish</t>
+          <t>Hindi, English, Urdu, Punjabi</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Unmukt studio: Delhi</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>₹350 Onwards</t>
+          <t>₹149 Onwards</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>08:40:47</t>
+          <t>16:38:48</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Room XO Presents Mika Singh</t>
+          <t>The Seventh Sense ft. Rohan Magic</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sat 5 Jul 2025</t>
+          <t>Fri4 Jul 2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1595,32 +1595,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>8:00PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>@3 English, Hindi</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Room Xo: Gurugram</t>
+          <t>The Comedy Theatre: Gurgaon</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹199</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>08:40:46</t>
+          <t>16:38:47</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>So Mini Things with Shraddha Jain- One Last Time</t>
+          <t>Tum, Main aur Ishq - Ashish Bagrecha</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1657,37 +1657,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sat 9 Aug 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>‘Shanmukhananda Hall: Mumbai</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1697,12 +1697,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>08:40:46</t>
+          <t>16:38:45</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1714,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+          <t>Ujaalon Ka Safar</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sat 1 Nov 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1729,47 +1729,47 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>3 Hindi</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Gymkhana Club: Gurugram</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>08:40:54</t>
+          <t>16:38:47</t>
         </is>
       </c>
     </row>
@@ -1781,47 +1781,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Van Gogh - An Immersive Story</t>
+          <t>Voices Delhi  Poetry and Storytelling Showcase</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thu 26 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>2Hours</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>@3_ Hindi, English</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>Nojoto Creator Hub: Delhi</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>₹700 Onwards</t>
+          <t>₹199</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>08:40:48</t>
+          <t>16:38:48</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anand Utsav</t>
+          <t>Bismil Ki Mehfil 2025 - Delhi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun 13 Jul 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,32 +523,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>@ Shri Ram Centre: Delhi</t>
+          <t>KD Jadhav Wrestling Stadium 7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹250</t>
+          <t>₹199 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16:38:45</t>
+          <t>10:10:20</t>
         </is>
       </c>
     </row>
@@ -575,47 +575,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Circus Festival</t>
+          <t>Cap Mania Tour ft Himesh Reshammiya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Auditorium: Ghaziabad</t>
+          <t>Indira Gandhi Arena: Delhi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹250 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -625,12 +625,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16:38:44</t>
+          <t>10:10:17</t>
         </is>
       </c>
     </row>
@@ -642,62 +642,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Delhi Open Mic - Poetry &amp; Storytelling</t>
+          <t>Comedy Nights @Comedy County</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sun 6 Jul 2025</t>
+          <t>Thu 31 Jul 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes.</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi, English, Urdu</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Unheard Diaries: Delhi</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹149</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16:38:46</t>
+          <t>10:10:20</t>
         </is>
       </c>
     </row>
@@ -709,27 +709,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ghar - An Open Mic For Words By Tape A Tale</t>
+          <t>Da Vinci Genius - Interactive Immersive Experience</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -739,32 +739,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>English, Hindi, Hinglish</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Mukti Manch: Mumbai</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹300</t>
+          <t>₹600 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16:38:45</t>
+          <t>10:10:25</t>
         </is>
       </c>
     </row>
@@ -776,62 +776,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indian Classical Live Dance and Music</t>
+          <t>Daily Ka Kaam Hai By Aakash Gupta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thu 31 Jul 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>9:45 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹500 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16:38:46</t>
+          <t>10:10:18</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Life ka Tamasha by Amandeep Khayal - Delhi</t>
+          <t>DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sun 6 Jul 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -858,47 +858,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>9:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>5 Hours</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12yrs+</t>
+          <t>21yrs+</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>@ Aiwan-E-Ghalib Auditorium: Delhi</t>
+          <t>Room Xo: Gurugram</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹799</t>
+          <t>₹500</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16:38:44</t>
+          <t>10:10:23</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Naram lehja by Kanha Kamboj</t>
+          <t>F1 BEYOND THE TRACK Movie Screening + Experience</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -920,37 +920,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thu 14 Aug 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>The Mental Talkies: Mumbai</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>16:38:46</t>
+          <t>10:10:27</t>
         </is>
       </c>
     </row>
@@ -977,17 +977,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Open Mic Delhi - Comedy, Poetry &amp; Storytelling!!</t>
+          <t>Gaurav Kapoor Live</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Fri 4 Jul 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sat 19 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -997,42 +997,42 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes.</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hindi, English, Urdu</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Unmukt studio: Delhi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹149 Onwards</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16:38:48</t>
+          <t>10:10:18</t>
         </is>
       </c>
     </row>
@@ -1044,12 +1044,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Passenger India Tour 2025 - New Delhi</t>
+          <t>Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wed 19 Nov 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1064,27 +1064,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>3yrs+</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>DLF Cyberhub: Gurugram</t>
+          <t>Plenary Hall Bharat Mandapam</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16:38:43</t>
+          <t>10:10:21</t>
         </is>
       </c>
     </row>
@@ -1111,47 +1111,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Poetry &amp; Storytelling Open Mic - Unheard Diaries</t>
+          <t>Jo Bolta Hai Wahi Hota Hai Ft. Harsh Gujral- Delhi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes.</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hindi, English, Urdu</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Unmukt studio: Delhi</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>₹149 Onwards</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>16:38:48</t>
+          <t>10:10:24</t>
         </is>
       </c>
     </row>
@@ -1178,22 +1178,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Poetry Storytelling &amp; Chai Hosted by Ravie Solanky</t>
+          <t>Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1208,32 +1208,32 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hindi, Urdu</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>The Social House: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>₹199 Onwards</t>
+          <t>₹499</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16:38:47</t>
+          <t>10:10:26</t>
         </is>
       </c>
     </row>
@@ -1245,47 +1245,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Priya Malik's Ishq Hai</t>
+          <t>KidZania Delhi NCR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sat 2 Aug 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sun 9 Nov 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>10 Hours</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Venue To Be Announced: Mumbai</t>
+          <t>KidZania: Noida</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹531 Onwards</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16:38:45</t>
+          <t>10:10:26</t>
         </is>
       </c>
     </row>
@@ -1312,22 +1312,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rahgir  Kya Jaipur Kya Dilli Tour</t>
+          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Sat 2 Aug 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1337,37 +1337,37 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Gurunanak Bhavan: Nagpur</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16:38:43</t>
+          <t>10:10:22</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rambo Circus - Delhi</t>
+          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1389,52 +1389,52 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sun 5 Oct 2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1 hour 25 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>English, Hindi, Hinglish</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Bal Gandharva Rang Mandir: 7</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>₹350 Onwards</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16:38:43</t>
+          <t>10:10:19</t>
         </is>
       </c>
     </row>
@@ -1446,62 +1446,62 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sahas by Amrita Saluja</t>
+          <t>Passenger India Tour 2025 - New Delhi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sat 26 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sun 24 Aug 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1 hour 10 minutes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hindi, English, Hindustani</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Mishty Studio: Ahmedabad</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>16:38:47</t>
+          <t>10:10:17</t>
         </is>
       </c>
     </row>
@@ -1513,62 +1513,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Saturday Open Mic - Unmukt Delhi</t>
+          <t>PRACTICE - A Standup Comedy Show by Manik Mahna</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sat 2 Aug 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>9:30 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2hours 30 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hindi, English, Urdu, Punjabi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unmukt studio: Delhi</t>
+          <t>Mysore Association Auditorium: Mumbai</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>₹149 Onwards</t>
+          <t>₹799</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>16:38:48</t>
+          <t>10:10:23</t>
         </is>
       </c>
     </row>
@@ -1580,62 +1580,62 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Seventh Sense ft. Rohan Magic</t>
+          <t>PS - I Love You By Pranav Sharma</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fri4 Jul 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8:00PM</t>
+          <t>3:30 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>@3 English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>The Comedy Theatre: Gurgaon</t>
+          <t>Mysore Association Auditorium</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>₹199</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>16:38:47</t>
+          <t>10:10:22</t>
         </is>
       </c>
     </row>
@@ -1647,62 +1647,62 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tum, Main aur Ishq - Ashish Bagrecha</t>
+          <t>Rambo Circus - Delhi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>7:30 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 hour 25 minutes</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>English, Hindi, Hinglish</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹350 Onwards</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>16:38:45</t>
+          <t>10:10:16</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1714,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ujaalon Ka Safar</t>
+          <t>SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 1 Nov 2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1729,47 +1729,47 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 hours 30 minutes</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3 Hindi</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gymkhana Club: Gurugram</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16:38:47</t>
+          <t>10:10:24</t>
         </is>
       </c>
     </row>
@@ -1781,62 +1781,62 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Voices Delhi  Poetry and Storytelling Showcase</t>
+          <t>Van Gogh - An Immersive Story</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>@3_ Hindi, English</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Nojoto Creator Hub: Delhi</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>₹199</t>
+          <t>₹700 Onwards</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16:38:48</t>
+          <t>10:10:16</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bismil Ki Mehfil 2025 - Delhi</t>
+          <t>ALLOW ME - A Standup Comedy Show by Rahul Dua</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Tue 1 Jul 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,37 +523,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>KD Jadhav Wrestling Stadium 7</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹199 Onwards</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10:10:20</t>
+          <t>10:44:29</t>
         </is>
       </c>
     </row>
@@ -575,47 +575,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cap Mania Tour ft Himesh Reshammiya</t>
+          <t>Best of Stand-up - Stand-up Comedy Show</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>8:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Indira Gandhi Arena: Delhi</t>
+          <t>Laughter Nation Comedy Club</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10:10:17</t>
+          <t>10:44:31</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comedy Nights @Comedy County</t>
+          <t>Bismil Ki Mehfil 2025 - Delhi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thu 31 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>8yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>KD Jadhav Wrestling Stadium 7</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹199 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10:10:20</t>
+          <t>10:44:22</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Da Vinci Genius - Interactive Immersive Experience</t>
+          <t>Comedy Nights @Comedy County</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Thu 31 Jul 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -729,32 +729,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹600 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10:10:25</t>
+          <t>10:44:24</t>
         </is>
       </c>
     </row>
@@ -776,22 +776,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Daily Ka Kaam Hai By Aakash Gupta</t>
+          <t>Comedy Nights Noida</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Tue 1 Jul 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9:45 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -806,22 +806,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Comedy County: Noida</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10:10:18</t>
+          <t>10:44:32</t>
         </is>
       </c>
     </row>
@@ -843,32 +843,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
+          <t>Comedy Show Noida Sector 18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Sun 13 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9:00 PM</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Room Xo: Gurugram</t>
+          <t>Highlane Comedy Club: Noida</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹500</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10:10:23</t>
+          <t>10:44:32</t>
         </is>
       </c>
     </row>
@@ -910,42 +910,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>F1 BEYOND THE TRACK Movie Screening + Experience</t>
+          <t>Daily Ka Kaam Hai By Aakash Gupta</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9:45 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10:10:27</t>
+          <t>10:44:23</t>
         </is>
       </c>
     </row>
@@ -977,12 +977,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gaurav Kapoor Live</t>
+          <t>Gaurav Gupta Live</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fri 4 Jul 2025</t>
+          <t>Tue 29 Jul 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -992,32 +992,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹999</t>
+          <t>₹499</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>10:10:18</t>
+          <t>10:44:30</t>
         </is>
       </c>
     </row>
@@ -1044,12 +1044,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+          <t>Gaurav Kapoor Live</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Fri 4 Jul 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1059,32 +1059,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Plenary Hall Bharat Mandapam</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10:10:21</t>
+          <t>10:44:22</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jo Bolta Hai Wahi Hota Hai Ft. Harsh Gujral- Delhi</t>
+          <t>Halki Halki Fati By Vikas Kush Sharma</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 7 Sep 2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4:30 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1141,22 +1141,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Baroda Productivity Council: Vadodara</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10:10:24</t>
+          <t>10:44:29</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+          <t>Jo Bolta Hai Wahi Hota Hai Ft. Harsh Gujral- Delhi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sun 27 Jul 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1213,17 +1213,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Talkatora Stadium: Delhi</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10:10:26</t>
+          <t>10:44:27</t>
         </is>
       </c>
     </row>
@@ -1245,52 +1245,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KidZania Delhi NCR</t>
+          <t>Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>KidZania: Noida</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>₹531 Onwards</t>
+          <t>₹499</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10:10:26</t>
+          <t>10:44:27</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>10:10:22</t>
+          <t>10:44:25</t>
         </is>
       </c>
     </row>
@@ -1379,32 +1379,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
+          <t>Love, Death &amp; Ketchup by Varun Grover</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 2 Aug 2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sun 5 Oct 2025</t>
+          <t>Sat 16 Aug 2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 hour 15 minutes</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1414,17 +1414,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bal Gandharva Rang Mandir: 7</t>
+          <t>Aspee Auditorium - Malad West</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10:10:19</t>
+          <t>10:44:30</t>
         </is>
       </c>
     </row>
@@ -1446,52 +1446,52 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Passenger India Tour 2025 - New Delhi</t>
+          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 27 Jun 2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 5 Oct 2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Bal Gandharva Rang Mandir: 7</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>10:10:17</t>
+          <t>10:44:24</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Mysore Association Auditorium: Mumbai</t>
+          <t>Mysore Association Auditorium</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10:10:23</t>
+          <t>10:44:26</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10:10:22</t>
+          <t>10:44:25</t>
         </is>
       </c>
     </row>
@@ -1647,52 +1647,52 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rambo Circus - Delhi</t>
+          <t>Rahgir  Kya Jaipur Kya Dilli Tour</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1 hour 25 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>English, Hindi, Hinglish</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>Gurunanak Bhavan: Nagpur</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>₹350 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10:10:16</t>
+          <t>10:44:21</t>
         </is>
       </c>
     </row>
@@ -1714,47 +1714,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+          <t>So Mini Things with Shraddha Jain- One Last Time</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sat 1 Nov 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 9 Aug 2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2 hours 30 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>6yrs+</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Gymkhana Club: Gurugram</t>
+          <t>‘Shanmukhananda Hall: Mumbai</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10:10:24</t>
+          <t>10:44:28</t>
         </is>
       </c>
     </row>
@@ -1781,47 +1781,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Van Gogh - An Immersive Story</t>
+          <t>Telling Lies -A Standup Solo by Aashish Solanki</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Wed 2 Jul 2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>BR English, Hindi</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Vasant Kunj: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>₹700 Onwards</t>
+          <t>₹599</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10:10:16</t>
+          <t>10:44:33</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -508,27 +508,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALLOW ME - A Standup Comedy Show by Rahul Dua</t>
+          <t>Acting &amp; Theatre Workshop</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue 1 Jul 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 9 Nov 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -543,27 +543,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹999</t>
+          <t>₹155</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10:44:29</t>
+          <t>08:35:54</t>
         </is>
       </c>
     </row>
@@ -575,27 +575,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Best of Stand-up - Stand-up Comedy Show</t>
+          <t>ALLOW ME - A Standup Comedy Show by Rahul Dua</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 28 Jun 2025</t>
+          <t>Tue 1 Jul 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sun 29 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -605,32 +605,32 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Laughter Nation Comedy Club</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10:44:31</t>
+          <t>08:35:45</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bismil Ki Mehfil 2025 - Delhi</t>
+          <t>Candle Making Workshop</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -657,47 +657,47 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>KD Jadhav Wrestling Stadium 7</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹199 Onwards</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10:44:22</t>
+          <t>08:35:53</t>
         </is>
       </c>
     </row>
@@ -709,62 +709,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comedy Nights @Comedy County</t>
+          <t>Clay Sculpting Workshop</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thu 31 Jul 2025</t>
+          <t>Sun 13 Jul 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>Third Wave Coffee, HSR Layout</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10:44:24</t>
+          <t>08:35:51</t>
         </is>
       </c>
     </row>
@@ -776,47 +776,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Comedy Nights Noida</t>
+          <t>Clay Trinket Tray Workshop</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue 1 Jul 2025</t>
+          <t>Sat 26 Jul 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3:30PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2Hours</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Comedy County: Noida</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10:44:32</t>
+          <t>08:35:49</t>
         </is>
       </c>
     </row>
@@ -843,17 +843,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Comedy Show Noida Sector 18</t>
+          <t>Hand Built Pottery</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sun 13 Jul 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -863,27 +863,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Highlane Comedy Club: Noida</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>₹299 Onwards</t>
+          <t>₹599</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10:44:32</t>
+          <t>08:35:52</t>
         </is>
       </c>
     </row>
@@ -910,47 +910,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daily Ka Kaam Hai By Aakash Gupta</t>
+          <t>Japanese Kintsugi Workshop</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Sat 26 Jul 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9:45 PM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Brew Haus Cafe: Mumbai</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10:44:23</t>
+          <t>08:35:47</t>
         </is>
       </c>
     </row>
@@ -977,62 +977,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gaurav Gupta Live</t>
+          <t>Japanese Kintsugi Workshop</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tue 29 Jul 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 26 Jul 2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>English, Hindi, Kannada, Bengali,</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>© Third Wave Coffee, Banjara Hills</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>10:44:30</t>
+          <t>08:35:49</t>
         </is>
       </c>
     </row>
@@ -1044,37 +1044,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gaurav Kapoor Live</t>
+          <t>Koi Pond Resin Art</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fri 4 Jul 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sat 26 Jul 2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>3:00PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1 Hour</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1084,22 +1084,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>₹999</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10:44:22</t>
+          <t>08:35:47</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Halki Halki Fati By Vikas Kush Sharma</t>
+          <t>Magnet Moments Make and Stick Polaroid</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sun 7 Sep 2025</t>
+          <t>Sun 6 Jul 2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4:30 PM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1146,27 +1146,27 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Baroda Productivity Council: Vadodara</t>
+          <t>Barista, Defence Colony: Delhi</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹799</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10:44:29</t>
+          <t>08:35:55</t>
         </is>
       </c>
     </row>
@@ -1178,47 +1178,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jo Bolta Hai Wahi Hota Hai Ft. Harsh Gujral- Delhi</t>
+          <t>Paint with Puppies by Barket</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sun 27 Jul 2025</t>
+          <t>Sun 29 Jun 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 6 Jul 2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>2 Hours</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>BeeYoung Brewgarden: Delhi</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10:44:27</t>
+          <t>08:35:48</t>
         </is>
       </c>
     </row>
@@ -1245,62 +1245,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jo Bolta Hai Wohi Hota Hai Ft. Harsh Gujral</t>
+          <t>Perfume Making Workshop</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 13 Jul 2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Bengali, English, Hindi, Kannada,</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>Lower Parel: Mumbai</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10:44:27</t>
+          <t>08:35:46</t>
         </is>
       </c>
     </row>
@@ -1312,47 +1312,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
+          <t>Pottery Date</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 2 Aug 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 13 Jul 2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>30 Minutes</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Bengali, English, Hindi, Kannada,</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Talkatora Stadium: Delhi</t>
+          <t>@ Conscious Coffee Cravings: Delhi</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>10:44:25</t>
+          <t>08:35:50</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Love, Death &amp; Ketchup by Varun Grover</t>
+          <t>Pottery on a Weekday.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sat 2 Aug 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sat 16 Aug 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1 hour 15 minutes</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Aspee Auditorium - Malad West</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>₹799 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10:44:30</t>
+          <t>08:35:52</t>
         </is>
       </c>
     </row>
@@ -1446,22 +1446,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
+          <t>Pottery Workshop</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>Sat 28 Jun 2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sun 5 Oct 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1471,37 +1471,37 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Bal Gandharva Rang Mandir: 7</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹599 Onwards</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>10:44:24</t>
+          <t>08:35:53</t>
         </is>
       </c>
     </row>
@@ -1513,62 +1513,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PRACTICE - A Standup Comedy Show by Manik Mahna</t>
+          <t>Pottery Workshop Delhi.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fri 27 Jun 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9:30 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Mysore Association Auditorium</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>₹799</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>08:35:47</t>
         </is>
       </c>
     </row>
@@ -1625,17 +1625,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10:44:25</t>
+          <t>08:35:46</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rahgir  Kya Jaipur Kya Dilli Tour</t>
+          <t>Resin Beach Art</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1657,52 +1657,52 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sat 26 Jul 2025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2 Hours</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Bengali, English, Hindi, Kannada,</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Gurunanak Bhavan: Nagpur</t>
+          <t>Brew Haus Cafe: Mumbai</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>₹499 Onwards</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10:44:21</t>
+          <t>08:35:53</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>So Mini Things with Shraddha Jain- One Last Time</t>
+          <t>Scented Candle Making</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1724,52 +1724,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sat 9 Aug 2025</t>
+          <t>Sun 13 Jul 2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>1 Hour</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Bengali, English, Hindi, Kannada,</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>‘Shanmukhananda Hall: Mumbai</t>
+          <t>@ Conscious Coffee Cravings: Delhi</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹799 Onwards</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10:44:28</t>
+          <t>08:35:51</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Telling Lies -A Standup Solo by Aashish Solanki</t>
+          <t>Texture Art</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wed 2 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1796,47 +1796,47 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>BR English, Hindi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>₹599</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10:44:33</t>
+          <t>08:35:49</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -508,62 +508,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Best of Stand-up - Stand-up Comedy Show</t>
+          <t>Bismil Ki Mehfil 2025 - Delhi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sat 12 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>KD Jadhav Wrestling Stadium 7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹199 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>08:34:00</t>
+          <t>08:37:49</t>
         </is>
       </c>
     </row>
@@ -575,12 +575,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bismil Ki Mehfil 2025 - Delhi</t>
+          <t>Cap Mania Tour ft Himesh Reshammiya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sun 20 Jul 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -590,47 +590,47 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6:00PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4Hours</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8yrs+</t>
+          <t>5yrs+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>® KD Jadhav Wrestling Stadium =</t>
+          <t>Indira Gandhi Arena: Delhi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹198</t>
+          <t>₹999 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>08:34:00</t>
+          <t>08:37:47</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cap Mania Tour ft Himesh Reshammiya</t>
+          <t>Made for Media - An Evening with Living Legends</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Sat 5 Jul 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>2:45 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -667,37 +667,37 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>English, Hindi</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Indira Gandhi Arena: Delhi</t>
+          <t>Sirifort Auditorium: Delhi</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹350 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>08:34:01</t>
+          <t>08:37:47</t>
         </is>
       </c>
     </row>
@@ -714,57 +714,57 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Thu 3 Jul 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sun 5 Oct 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Bal Gandharva Rang Mandir: 7</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>08:34:01</t>
+          <t>08:37:48</t>
         </is>
       </c>
     </row>
@@ -776,62 +776,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Passenger India Tour 2025 - New Delhi</t>
+          <t>The Lineup ft. Chirag, Pranav, Kaustubh &amp; Vivek</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wed 19 Nov 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Thu 3 Jul 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7:00PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>@ English</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>@ _DLF Cyberhub: Gurugram 7</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹399 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>08:34:02</t>
+          <t>08:37:46</t>
         </is>
       </c>
     </row>
@@ -843,62 +843,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rambo Circus - Delhi</t>
+          <t>Van Gogh - An Immersive Story</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Tue 1 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Thu 31 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>₹520 Onwards</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>08:34:00</t>
+          <t>08:37:48</t>
         </is>
       </c>
     </row>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,12 +508,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bismil Ki Mehfil 2025 - Delhi</t>
+          <t>A NIGHT OF LAUGHTER FT GAURAV GUPTA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 12 Jul 2025</t>
+          <t>Sun 10 Aug 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,17 +523,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>7:30 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8yrs+</t>
+          <t>18yrs+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>KD Jadhav Wrestling Stadium 7</t>
+          <t>Plenary Hall Bharat Mandapam: Delhi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>₹199 Onwards</t>
+          <t>₹200 Onwards</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fast Filling</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>08:37:49</t>
+          <t>17:34:45</t>
         </is>
       </c>
     </row>
@@ -575,47 +575,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cap Mania Tour ft Himesh Reshammiya</t>
+          <t>Adult Standup Comedy Show</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 20 Jul 2025</t>
+          <t>Mon 30 Jun 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Wed 2 Jul 2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>9:30PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5yrs+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Indira Gandhi Arena: Delhi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>₹999 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>08:37:47</t>
+          <t>17:34:48</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Made for Media - An Evening with Living Legends</t>
+          <t>ALLOW ME - A Standup Comedy Show by Rahul Dua</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sat 5 Jul 2025</t>
+          <t>Tue 1 Jul 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -657,37 +657,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2:45 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>1 hour 30 minutes</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16yrs+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>English, Hindi</t>
+          <t>Hindi, English</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Sirifort Auditorium: Delhi</t>
+          <t>The Laugh Store: DLF Cyberhub</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>₹350 Onwards</t>
+          <t>₹299 Onwards</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Fast Filling</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>08:37:47</t>
+          <t>17:34:44</t>
         </is>
       </c>
     </row>
@@ -709,17 +709,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
+          <t>Bhuwin Experience</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thu 3 Jul 2025</t>
+          <t>Sat 19 Jul 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sun 5 Oct 2025</t>
+          <t>Sat 23 Aug 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -734,22 +734,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>12yrs+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Bal Gandharva Rang Mandir: 7</t>
+          <t>Bal Gandharva Rang Mandir</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹499 Onwards</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>08:37:48</t>
+          <t>17:34:46</t>
         </is>
       </c>
     </row>
@@ -776,47 +776,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Lineup ft. Chirag, Pranav, Kaustubh &amp; Vivek</t>
+          <t>Bismil Ki Mehfil 2025 - Delhi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 30 Jun 2025</t>
+          <t>Sat 12 Jul 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thu 3 Jul 2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 hour 30 minutes</t>
+          <t>4 Hours</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18yrs+</t>
+          <t>8yrs+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hindi, English</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>The Laugh Store: DLF Cyberhub</t>
+          <t>K D Jadhav Wrestling Stadium (IGI</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>₹399 Onwards</t>
+          <t>₹199 Onwards</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>08:37:46</t>
+          <t>17:34:40</t>
         </is>
       </c>
     </row>
@@ -843,62 +843,1804 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Blaaze NSP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tue 1 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Thu 31 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11 hours 30 minutes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4yrs+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Blaaze , Netaji Subhash Palace: &lt;/</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>₹990 Onwards</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>17:34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>#0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blind Date</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Wed 2 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed 20 Aug 2025</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8:00 PM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Lower Parel: Mumbai</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>₹199</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>17:34:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>#0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cap Mania Tour ft Himesh Reshammiya</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sun 20 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6:00 PM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4 Hours</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5yrs+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Indira Gandhi Arena: Delhi</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>17:34:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>#0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Comedy Nights @Comedy County</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 30 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu 31 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Comedy County: Noida</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>17:34:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>#0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Da Vinci Genius - Interactive Immersive Experience</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>17:34:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Daily Ka Kaam Hai By Aakash Gupta</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 30 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sun 20 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9:45 PM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>17:34:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>#0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dating Game Show by Vivek Samtani</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Wed 9 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>17:34:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>#0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DJ Chetas - Chandni Bar Meets Bollywood (Gurugram)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sat 12 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5 Hours</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>21yrs+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Room Xo: Gurugram</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>₹500</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>17:34:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>#0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gaurav Kapoor Live</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fri 4 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>17:34:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>#0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jazbaa Ft Rekha Bhardwaj Live in Concert</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>17:34:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jo Bolta Hai Wahi Hota Hai Ft. Harsh Gujral- Delhi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sun 27 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Talkatora Stadium: Delhi</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>17:34:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>#0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kisi Ko Batana Mat By Anubhav Singh Bassi - Delhi</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sat 2 Aug 2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Talkatora Stadium: Delhi</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>17:34:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Love, Death &amp; Ketchup by Varun Grover</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sat 2 Aug 2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sat 16 Aug 2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1 hour 15 minutes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Aspee Auditorium - Malad West: Mumbai</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>₹799 Onwards</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>17:34:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>#0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Madhur Model - A Concept Show by Madhur Virli</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 14 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thu 24 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6:00 PM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>17:34:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>#0020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Master Peace - Standup Comedy Show By Madhur Virli</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Thu 3 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sun 5 Oct 2025</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Bal Gandharva Rang Mandir: DY SHOW BY Senate</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>₹399 Onwards</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>17:34:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>#0021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Open Mic - Comedy &amp; Poetry.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sat 5 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sun 3 Aug 2025</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6:30 PM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>16yrs+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>English, Hindi, Punjabi</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Buddy On Stage: Delhi</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>17:34:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>#0022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Passenger India Tour 2025 - New Delhi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Wed 19 Nov 2025</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5yrs+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DLF Cyberhub: Gurugram</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>17:34:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>#0023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PRACTICE - A Standup Comedy Show by Manik Mahna</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sun 13 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sun 20 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Medai - The Stage, Alwarpet: Chennai</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>₹799</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>17:34:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>#0024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Room XO Presents Mika Singh</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sat 5 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4 Hours</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>21yrs+</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Room Xo: Gurugram</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>₹999 Onwards</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>17:34:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>#0025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Single's Meetup</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 30 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sun 27 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Bengali, English, Hindi, Kannada,</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Lower Parel: Mumbai</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>17:34:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>#0026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SONU NIGAM LIVE IN CONCERT GURUGRAM</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sat 1 Nov 2025</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2 hours 30 minutes.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5yrs+</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Gymkhana Club: Gurugram</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>₹499 Onwards</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>17:34:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>#0027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Strangers Meet</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 30 Jun 2025</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sun 27 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7:00 PM</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>English, Hindi</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Lower Parel: Mumbai</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>17:34:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>#0028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sunburn Arena Ft. Francis Mercier - Delhi</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sat 11 Oct 2025</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6 Hours</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Huda Gymkhana Club: Gurgaon</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>₹200 Onwards</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>17:34:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>#0029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Swiftchella - A Taylor Swift-Themed Fan Party</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sun 6 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sun 13 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3 Hours</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Marketcity: Mumbai</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Fast Filling</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>17:34:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>#0030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>The Lineup ft. Chirag, Pranav, Kaustubh &amp; Vivek</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tue 1 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu 3 Jul 2025</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1 hour 30 minutes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hindi, English</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>The Laugh Store: DLF Cyberhub</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>₹399 Onwards</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>17:34:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>#0031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Van Gogh - An Immersive Story</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Tue 1 Jul 2025</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Thu 31 Jul 2025</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>1 Hour</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Vasant Kunj: Delhi</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>₹520 Onwards</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>₹520</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2025-06-30</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>08:37:48</t>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>17:34:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>#0032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VILEN LIVE - DELHI (NCR)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fri 4 Jul 2025</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>9:00 PM</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3 Hours</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>18yrs+</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Room Xo: Gurugram</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>₹299 Onwards</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>17:34:45</t>
         </is>
       </c>
     </row>
